--- a/sweeping_gap/20230102_sweeping_gap_measurements_LA8.xlsx
+++ b/sweeping_gap/20230102_sweeping_gap_measurements_LA8.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="19320" yWindow="0" windowWidth="9480" windowHeight="12285" activeTab="2"/>
+    <workbookView xWindow="19320" yWindow="0" windowWidth="9480" windowHeight="12285" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="180">
   <si>
     <t>References:</t>
   </si>
@@ -792,6 +792,45 @@
       <t>TG</t>
     </r>
   </si>
+  <si>
+    <t xml:space="preserve"> aSG_10mm:  10xFFF [MV], 400 [MU/min]  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> aSG_20mm:  10xFFF [MV], 400 [MU/min]  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TransmB :  10xFFF [MV], 400 [MU/min]  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> aSG_3mm :  10xFFF [MV], 400 [MU/min]  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Open:  10xFFF [MV], 400 [MU/min]  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> aSG_7mm :  10xFFF [MV], 400 [MU/min]  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20mm:  10xFFF [MV], 400 [MU/min]  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TransmA :  10xFFF [MV], 400 [MU/min]  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> aSG_2mm :  10xFFF [MV], 400 [MU/min]  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> aSG_5mm :  10xFFF [MV], 400 [MU/min]  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> aSG_1mm :  10xFFF [MV], 400 [MU/min]  </t>
+  </si>
+  <si>
+    <t>10X FFF aSG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTERCEPT/GRADIENT </t>
+  </si>
 </sst>
 </file>
 
@@ -803,7 +842,7 @@
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -951,8 +990,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -992,8 +1046,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1064,6 +1124,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1077,7 +1155,7 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1173,12 +1251,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="12" fillId="3" borderId="3" xfId="5" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="8" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="5" applyAlignment="1"/>
@@ -1232,6 +1304,17 @@
     <xf numFmtId="166" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="20% - Accent3" xfId="6" builtinId="38"/>
@@ -1245,7 +1328,64 @@
     <cellStyle name="Input" xfId="7" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="40">
+  <dxfs count="51">
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
     <dxf>
       <numFmt numFmtId="15" formatCode="0.00E+00"/>
     </dxf>
@@ -3005,6 +3145,396 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
+            <c:v>aSG 10XFFF</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ImageJ!$I$64:$I$71</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ImageJ!$K$64:$K$71</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8953068592057754E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.4079422382671558E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0740072202166079E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9675090252707583E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8700361010830316E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.1967509025270772E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.521660649819495E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D082-4C11-971B-7DBD6AC10466}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="784511696"/>
+        <c:axId val="784509200"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="784511696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>s</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> [cm]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="784509200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="784509200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5.000000000000001E-2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Delta</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> Fluence A.U.</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="784511696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
             <c:strRef>
               <c:f>'6FFF_measurements'!$H$30:$H$37</c:f>
               <c:strCache>
@@ -3544,7 +4074,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3640,7 +4170,7 @@
             <c:numRef>
               <c:f>'6FFF_measurements'!$H$49:$H$57</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -4114,7 +4644,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4655,7 +5185,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8653,6 +9183,41 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>558085</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>171182</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>2433571</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>97129</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
       <xdr:row>25</xdr:row>
@@ -8718,7 +9283,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8788,25 +9353,22 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A6:O16" totalsRowShown="0">
   <autoFilter ref="A6:O16"/>
-  <sortState ref="A7:N15">
-    <sortCondition ref="H6:H15"/>
-  </sortState>
   <tableColumns count="15">
     <tableColumn id="1" name="Label"/>
-    <tableColumn id="2" name="Area" dataDxfId="39"/>
-    <tableColumn id="3" name="Mean" dataDxfId="38"/>
-    <tableColumn id="4" name="StdDev" dataDxfId="37"/>
-    <tableColumn id="5" name="Mode" dataDxfId="36"/>
-    <tableColumn id="6" name="Min" dataDxfId="35"/>
-    <tableColumn id="7" name="Max" dataDxfId="34"/>
-    <tableColumn id="8" name="X" dataDxfId="33"/>
-    <tableColumn id="9" name="Y" dataDxfId="32"/>
-    <tableColumn id="10" name="IntDen" dataDxfId="31"/>
-    <tableColumn id="11" name="Median" dataDxfId="30"/>
-    <tableColumn id="12" name="%Area" dataDxfId="29"/>
-    <tableColumn id="13" name="RawIntDen" dataDxfId="28"/>
-    <tableColumn id="14" name="Gap [cm]" dataDxfId="27"/>
-    <tableColumn id="15" name="EPID Signal" dataDxfId="14">
+    <tableColumn id="2" name="Area" dataDxfId="50"/>
+    <tableColumn id="3" name="Mean" dataDxfId="49"/>
+    <tableColumn id="4" name="StdDev" dataDxfId="48"/>
+    <tableColumn id="5" name="Mode" dataDxfId="47"/>
+    <tableColumn id="6" name="Min" dataDxfId="46"/>
+    <tableColumn id="7" name="Max" dataDxfId="45"/>
+    <tableColumn id="8" name="X" dataDxfId="44"/>
+    <tableColumn id="9" name="Y" dataDxfId="43"/>
+    <tableColumn id="10" name="IntDen" dataDxfId="42"/>
+    <tableColumn id="11" name="Median" dataDxfId="41"/>
+    <tableColumn id="12" name="%Area" dataDxfId="40"/>
+    <tableColumn id="13" name="RawIntDen" dataDxfId="39"/>
+    <tableColumn id="14" name="Gap [cm]" dataDxfId="38"/>
+    <tableColumn id="15" name="EPID Signal" dataDxfId="37">
       <calculatedColumnFormula>Table2[[#This Row],[IntDen]]/$J$16</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8822,20 +9384,20 @@
   </sortState>
   <tableColumns count="15">
     <tableColumn id="1" name="Label"/>
-    <tableColumn id="2" name="Area" dataDxfId="26"/>
-    <tableColumn id="3" name="Mean" dataDxfId="25"/>
-    <tableColumn id="4" name="StdDev" dataDxfId="24"/>
-    <tableColumn id="5" name="Mode" dataDxfId="23"/>
-    <tableColumn id="6" name="Min" dataDxfId="22"/>
-    <tableColumn id="7" name="Max" dataDxfId="21"/>
-    <tableColumn id="8" name="X" dataDxfId="20"/>
-    <tableColumn id="9" name="Y" dataDxfId="19"/>
-    <tableColumn id="10" name="IntDen" dataDxfId="18"/>
-    <tableColumn id="11" name="Median" dataDxfId="17"/>
-    <tableColumn id="12" name="%Area" dataDxfId="16"/>
-    <tableColumn id="13" name="RawIntDen" dataDxfId="15"/>
+    <tableColumn id="2" name="Area" dataDxfId="36"/>
+    <tableColumn id="3" name="Mean" dataDxfId="35"/>
+    <tableColumn id="4" name="StdDev" dataDxfId="34"/>
+    <tableColumn id="5" name="Mode" dataDxfId="33"/>
+    <tableColumn id="6" name="Min" dataDxfId="32"/>
+    <tableColumn id="7" name="Max" dataDxfId="31"/>
+    <tableColumn id="8" name="X" dataDxfId="30"/>
+    <tableColumn id="9" name="Y" dataDxfId="29"/>
+    <tableColumn id="10" name="IntDen" dataDxfId="28"/>
+    <tableColumn id="11" name="Median" dataDxfId="27"/>
+    <tableColumn id="12" name="%Area" dataDxfId="26"/>
+    <tableColumn id="13" name="RawIntDen" dataDxfId="25"/>
     <tableColumn id="14" name="Gap [cm]"/>
-    <tableColumn id="15" name="EPID Signal" dataDxfId="13">
+    <tableColumn id="15" name="EPID Signal" dataDxfId="24">
       <calculatedColumnFormula>Table3[[#This Row],[IntDen]]/$J$28</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8851,21 +9413,48 @@
   </sortState>
   <tableColumns count="15">
     <tableColumn id="1" name="Label"/>
-    <tableColumn id="2" name="Area" dataDxfId="12"/>
-    <tableColumn id="3" name="Mean" dataDxfId="11"/>
-    <tableColumn id="4" name="StdDev" dataDxfId="10"/>
-    <tableColumn id="5" name="Mode" dataDxfId="9"/>
-    <tableColumn id="6" name="Min" dataDxfId="8"/>
-    <tableColumn id="7" name="Max" dataDxfId="7"/>
-    <tableColumn id="8" name="X" dataDxfId="6"/>
-    <tableColumn id="9" name="Y" dataDxfId="5"/>
-    <tableColumn id="10" name="IntDen" dataDxfId="4"/>
-    <tableColumn id="11" name="Median" dataDxfId="3"/>
-    <tableColumn id="12" name="%Area" dataDxfId="2"/>
-    <tableColumn id="13" name="RawIntDen" dataDxfId="1"/>
+    <tableColumn id="2" name="Area" dataDxfId="23"/>
+    <tableColumn id="3" name="Mean" dataDxfId="22"/>
+    <tableColumn id="4" name="StdDev" dataDxfId="21"/>
+    <tableColumn id="5" name="Mode" dataDxfId="20"/>
+    <tableColumn id="6" name="Min" dataDxfId="19"/>
+    <tableColumn id="7" name="Max" dataDxfId="18"/>
+    <tableColumn id="8" name="X" dataDxfId="17"/>
+    <tableColumn id="9" name="Y" dataDxfId="16"/>
+    <tableColumn id="10" name="IntDen" dataDxfId="15"/>
+    <tableColumn id="11" name="Median" dataDxfId="14"/>
+    <tableColumn id="12" name="%Area" dataDxfId="13"/>
+    <tableColumn id="13" name="RawIntDen" dataDxfId="12"/>
     <tableColumn id="14" name="Gap [cm]"/>
-    <tableColumn id="15" name="EPID Signal" dataDxfId="0">
+    <tableColumn id="15" name="EPID Signal" dataDxfId="11">
       <calculatedColumnFormula>Table4[[#This Row],[IntDen]]/$J$52</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A63:K74" totalsRowShown="0" headerRowDxfId="2" tableBorderDxfId="10">
+  <autoFilter ref="A63:K74"/>
+  <sortState ref="A64:K74">
+    <sortCondition ref="I63:I74"/>
+  </sortState>
+  <tableColumns count="11">
+    <tableColumn id="1" name="Label"/>
+    <tableColumn id="2" name="Area" dataDxfId="9"/>
+    <tableColumn id="3" name="Mean" dataDxfId="8"/>
+    <tableColumn id="4" name="StdDev" dataDxfId="7"/>
+    <tableColumn id="10" name="IntDen" dataDxfId="6"/>
+    <tableColumn id="11" name="Median" dataDxfId="5"/>
+    <tableColumn id="12" name="%Area" dataDxfId="4"/>
+    <tableColumn id="13" name="RawIntDen" dataDxfId="3"/>
+    <tableColumn id="14" name="s [cm]"/>
+    <tableColumn id="15" name="EPID Signal" dataDxfId="1">
+      <calculatedColumnFormula>Table1[[#This Row],[IntDen]]/E$72</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="16" name="DELTA " dataDxfId="0">
+      <calculatedColumnFormula>$J$64 - J64</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -9171,8 +9760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C12"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9260,8 +9849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J79"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView topLeftCell="B1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="G81" sqref="G81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9272,17 +9861,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
     </row>
     <row r="2" spans="2:10" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
@@ -9501,7 +10090,7 @@
       <c r="B9" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="50">
+      <c r="C9" s="48">
         <f>AVERAGE(C7:C8)</f>
         <v>9.9160777385159E-3</v>
       </c>
@@ -9509,7 +10098,7 @@
         <f>0.5*100*SQRT((0.01*C7*D7)^2+(0.01*C8*D8)^2)/C9</f>
         <v>0.74667135680992736</v>
       </c>
-      <c r="E9" s="50">
+      <c r="E9" s="48">
         <f>AVERAGE(E7:E8)</f>
         <v>1.1782727095895739E-2</v>
       </c>
@@ -9517,7 +10106,7 @@
         <f>0.5*100*SQRT((0.01*E7*F7)^2+(0.01*E8*F8)^2)/E9</f>
         <v>0.22728869698034523</v>
       </c>
-      <c r="G9" s="50">
+      <c r="G9" s="48">
         <f>AVERAGE(G7:G8)</f>
         <v>1.0984767217335337E-2</v>
       </c>
@@ -9525,7 +10114,7 @@
         <f>0.5*100*SQRT((0.01*G7*H7)^2+(0.01*G8*H8)^2)/G9</f>
         <v>2.4669357185040153</v>
       </c>
-      <c r="I9" s="50">
+      <c r="I9" s="48">
         <f>AVERAGE(I7:I8)</f>
         <v>1.3103134479271993E-2</v>
       </c>
@@ -9540,17 +10129,17 @@
       </c>
     </row>
     <row r="13" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
     </row>
     <row r="14" spans="2:10" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="2:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9800,17 +10389,17 @@
       </c>
     </row>
     <row r="50" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="41" t="s">
+      <c r="B50" s="68" t="s">
         <v>81</v>
       </c>
-      <c r="C50" s="41"/>
-      <c r="D50" s="41"/>
-      <c r="E50" s="41"/>
-      <c r="F50" s="41"/>
-      <c r="G50" s="41"/>
-      <c r="H50" s="41"/>
-      <c r="I50" s="41"/>
-      <c r="J50" s="41"/>
+      <c r="C50" s="68"/>
+      <c r="D50" s="68"/>
+      <c r="E50" s="68"/>
+      <c r="F50" s="68"/>
+      <c r="G50" s="68"/>
+      <c r="H50" s="68"/>
+      <c r="I50" s="68"/>
+      <c r="J50" s="68"/>
     </row>
     <row r="51" spans="2:10" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="53" spans="2:10" ht="18" x14ac:dyDescent="0.25">
@@ -10503,8 +11092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView zoomScale="54" zoomScaleNormal="54" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10515,17 +11104,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
     </row>
     <row r="2" spans="2:10" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
@@ -10568,19 +11157,19 @@
       <c r="B5" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="50">
+      <c r="C5" s="48">
         <f>'6FFF_measurements'!E24</f>
         <v>9.9160777385159E-3</v>
       </c>
-      <c r="D5" s="50">
+      <c r="D5" s="48">
         <f>'10FFF_measurements'!E24</f>
         <v>1.1782727095895739E-2</v>
       </c>
-      <c r="E5" s="50">
+      <c r="E5" s="48">
         <f>'6cFF_measurements'!E24</f>
         <v>1.0984767217335337E-2</v>
       </c>
-      <c r="F5" s="50">
+      <c r="F5" s="48">
         <f>'10cFF_measurements'!E24</f>
         <v>1.3103134479271993E-2</v>
       </c>
@@ -10591,17 +11180,17 @@
       </c>
     </row>
     <row r="9" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68"/>
     </row>
     <row r="10" spans="2:10" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
@@ -10642,7 +11231,7 @@
       <c r="D12" s="32">
         <v>1.2996058711606404E-2</v>
       </c>
-      <c r="E12" s="58">
+      <c r="E12" s="56">
         <f>C5</f>
         <v>9.9160777385159E-3</v>
       </c>
@@ -10650,7 +11239,7 @@
         <f>1-E12</f>
         <v>0.99008392226148412</v>
       </c>
-      <c r="G12" s="66">
+      <c r="G12" s="64">
         <v>12</v>
       </c>
       <c r="H12" s="38">
@@ -10661,7 +11250,7 @@
         <f>D12/C12</f>
         <v>0.15820766910814288</v>
       </c>
-      <c r="J12" s="64">
+      <c r="J12" s="62">
         <f>(I12 - (H12/F12))</f>
         <v>3.8022975480965268E-2</v>
       </c>
@@ -10677,7 +11266,7 @@
       <c r="D13" s="32">
         <v>1.5890353567848195E-2</v>
       </c>
-      <c r="E13" s="58">
+      <c r="E13" s="56">
         <f>D5</f>
         <v>1.1782727095895739E-2</v>
       </c>
@@ -10685,7 +11274,7 @@
         <f>1-E13</f>
         <v>0.98821727290410422</v>
       </c>
-      <c r="G13" s="65">
+      <c r="G13" s="63">
         <f>G12</f>
         <v>12</v>
       </c>
@@ -10697,7 +11286,7 @@
         <f>D13/C13</f>
         <v>0.19309090909090879</v>
       </c>
-      <c r="J13" s="64">
+      <c r="J13" s="62">
         <f>(I13 - (H13/F13))</f>
         <v>5.0012328066683459E-2</v>
       </c>
@@ -10713,7 +11302,7 @@
       <c r="D14" s="32">
         <v>1.4573819229472512E-2</v>
       </c>
-      <c r="E14" s="58">
+      <c r="E14" s="56">
         <f>E5</f>
         <v>1.0984767217335337E-2</v>
       </c>
@@ -10721,7 +11310,7 @@
         <f>1-E14</f>
         <v>0.98901523278266468</v>
       </c>
-      <c r="G14" s="65">
+      <c r="G14" s="63">
         <f>G12</f>
         <v>12</v>
       </c>
@@ -10733,7 +11322,7 @@
         <f>D14/C14</f>
         <v>0.17742537313432818</v>
       </c>
-      <c r="J14" s="64">
+      <c r="J14" s="62">
         <f>(I14 - (H14/F14))</f>
         <v>4.414410279722028E-2</v>
       </c>
@@ -10749,7 +11338,7 @@
       <c r="D15" s="32">
         <v>1.7774378498681034E-2</v>
       </c>
-      <c r="E15" s="58">
+      <c r="E15" s="56">
         <f>F5</f>
         <v>1.3103134479271993E-2</v>
       </c>
@@ -10757,7 +11346,7 @@
         <f>1-E15</f>
         <v>0.98689686552072797</v>
       </c>
-      <c r="G15" s="65">
+      <c r="G15" s="63">
         <f>G12</f>
         <v>12</v>
       </c>
@@ -10769,7 +11358,7 @@
         <f>D15/C15</f>
         <v>0.21733325045067461</v>
       </c>
-      <c r="J15" s="64">
+      <c r="J15" s="62">
         <f>(I15 - (H15/F15))</f>
         <v>5.8007976205023043E-2</v>
       </c>
@@ -10780,17 +11369,17 @@
       </c>
     </row>
     <row r="19" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="68" t="s">
         <v>81</v>
       </c>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="68"/>
     </row>
     <row r="20" spans="2:10" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
@@ -10973,10 +11562,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC60"/>
+  <dimension ref="A1:AC80"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="G84" sqref="G84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -11001,12 +11590,12 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="42" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="43" t="s">
         <v>108</v>
       </c>
     </row>
@@ -11061,46 +11650,46 @@
       <c r="A7" t="s">
         <v>104</v>
       </c>
-      <c r="B7" s="43">
+      <c r="B7" s="41">
         <v>22500</v>
       </c>
-      <c r="C7" s="43">
+      <c r="C7" s="41">
         <v>1.315E-2</v>
       </c>
-      <c r="D7" s="43">
+      <c r="D7" s="41">
         <v>4.5100000000000001E-4</v>
       </c>
-      <c r="E7" s="43">
+      <c r="E7" s="41">
         <v>1.298E-2</v>
       </c>
-      <c r="F7" s="43">
+      <c r="F7" s="41">
         <v>1.197E-2</v>
       </c>
-      <c r="G7" s="43">
+      <c r="G7" s="41">
         <v>1.503E-2</v>
       </c>
-      <c r="H7" s="43">
+      <c r="H7" s="41">
         <v>595</v>
       </c>
-      <c r="I7" s="43">
+      <c r="I7" s="41">
         <v>595</v>
       </c>
-      <c r="J7" s="43">
+      <c r="J7" s="41">
         <v>295.89999999999998</v>
       </c>
-      <c r="K7" s="43">
+      <c r="K7" s="41">
         <v>1.311E-2</v>
       </c>
-      <c r="L7" s="43">
+      <c r="L7" s="41">
         <v>100</v>
       </c>
-      <c r="M7" s="43">
+      <c r="M7" s="41">
         <v>295.89999999999998</v>
       </c>
-      <c r="N7" s="43">
+      <c r="N7" s="41">
         <v>0.2</v>
       </c>
-      <c r="O7" s="43">
+      <c r="O7" s="41">
         <f>Table2[[#This Row],[IntDen]]/$J$16</f>
         <v>2.8700290979631424E-2</v>
       </c>
@@ -11109,46 +11698,46 @@
       <c r="A8" t="s">
         <v>107</v>
       </c>
-      <c r="B8" s="43">
+      <c r="B8" s="41">
         <v>22500</v>
       </c>
-      <c r="C8" s="43">
+      <c r="C8" s="41">
         <v>2.0449999999999999E-2</v>
       </c>
-      <c r="D8" s="43">
+      <c r="D8" s="41">
         <v>4.4749999999999998E-4</v>
       </c>
-      <c r="E8" s="43">
+      <c r="E8" s="41">
         <v>2.0279999999999999E-2</v>
       </c>
-      <c r="F8" s="43">
+      <c r="F8" s="41">
         <v>1.9259999999999999E-2</v>
       </c>
-      <c r="G8" s="43">
+      <c r="G8" s="41">
         <v>2.239E-2</v>
       </c>
-      <c r="H8" s="43">
+      <c r="H8" s="41">
         <v>595</v>
       </c>
-      <c r="I8" s="43">
+      <c r="I8" s="41">
         <v>595</v>
       </c>
-      <c r="J8" s="43">
+      <c r="J8" s="41">
         <v>460.1</v>
       </c>
-      <c r="K8" s="43">
+      <c r="K8" s="41">
         <v>2.0410000000000001E-2</v>
       </c>
-      <c r="L8" s="43">
+      <c r="L8" s="41">
         <v>100</v>
       </c>
-      <c r="M8" s="43">
+      <c r="M8" s="41">
         <v>460.1</v>
       </c>
-      <c r="N8" s="43">
+      <c r="N8" s="41">
         <v>0.4</v>
       </c>
-      <c r="O8" s="43">
+      <c r="O8" s="41">
         <f>Table2[[#This Row],[IntDen]]/$J$16</f>
         <v>4.4626576139670228E-2</v>
       </c>
@@ -11157,46 +11746,46 @@
       <c r="A9" t="s">
         <v>99</v>
       </c>
-      <c r="B9" s="43">
+      <c r="B9" s="41">
         <v>22500</v>
       </c>
-      <c r="C9" s="43">
+      <c r="C9" s="41">
         <v>2.7980000000000001E-2</v>
       </c>
-      <c r="D9" s="43">
+      <c r="D9" s="41">
         <v>4.4329999999999999E-4</v>
       </c>
-      <c r="E9" s="43">
+      <c r="E9" s="41">
         <v>2.7820000000000001E-2</v>
       </c>
-      <c r="F9" s="43">
+      <c r="F9" s="41">
         <v>2.6669999999999999E-2</v>
       </c>
-      <c r="G9" s="43">
+      <c r="G9" s="41">
         <v>2.9919999999999999E-2</v>
       </c>
-      <c r="H9" s="43">
+      <c r="H9" s="41">
         <v>595</v>
       </c>
-      <c r="I9" s="43">
+      <c r="I9" s="41">
         <v>595</v>
       </c>
-      <c r="J9" s="43">
+      <c r="J9" s="41">
         <v>629.6</v>
       </c>
-      <c r="K9" s="43">
+      <c r="K9" s="41">
         <v>2.794E-2</v>
       </c>
-      <c r="L9" s="43">
+      <c r="L9" s="41">
         <v>100</v>
       </c>
-      <c r="M9" s="43">
+      <c r="M9" s="41">
         <v>629.6</v>
       </c>
-      <c r="N9" s="43">
+      <c r="N9" s="41">
         <v>0.6</v>
       </c>
-      <c r="O9" s="43">
+      <c r="O9" s="41">
         <f>Table2[[#This Row],[IntDen]]/$J$16</f>
         <v>6.1066925315227935E-2</v>
       </c>
@@ -11205,46 +11794,46 @@
       <c r="A10" t="s">
         <v>105</v>
       </c>
-      <c r="B10" s="43">
+      <c r="B10" s="41">
         <v>22500</v>
       </c>
-      <c r="C10" s="43">
+      <c r="C10" s="41">
         <v>4.3139999999999998E-2</v>
       </c>
-      <c r="D10" s="43">
+      <c r="D10" s="41">
         <v>4.3609999999999998E-4</v>
       </c>
-      <c r="E10" s="43">
+      <c r="E10" s="41">
         <v>4.2970000000000001E-2</v>
       </c>
-      <c r="F10" s="43">
+      <c r="F10" s="41">
         <v>4.1779999999999998E-2</v>
       </c>
-      <c r="G10" s="43">
+      <c r="G10" s="41">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="H10" s="43">
+      <c r="H10" s="41">
         <v>595</v>
       </c>
-      <c r="I10" s="43">
+      <c r="I10" s="41">
         <v>595</v>
       </c>
-      <c r="J10" s="43">
+      <c r="J10" s="41">
         <v>970.6</v>
       </c>
-      <c r="K10" s="43">
+      <c r="K10" s="41">
         <v>4.3099999999999999E-2</v>
       </c>
-      <c r="L10" s="43">
+      <c r="L10" s="41">
         <v>100</v>
       </c>
-      <c r="M10" s="43">
+      <c r="M10" s="41">
         <v>970.6</v>
       </c>
-      <c r="N10" s="43">
+      <c r="N10" s="41">
         <v>1</v>
       </c>
-      <c r="O10" s="43">
+      <c r="O10" s="41">
         <f>Table2[[#This Row],[IntDen]]/$J$16</f>
         <v>9.4141610087293895E-2</v>
       </c>
@@ -11253,46 +11842,46 @@
       <c r="A11" t="s">
         <v>101</v>
       </c>
-      <c r="B11" s="43">
+      <c r="B11" s="41">
         <v>22500</v>
       </c>
-      <c r="C11" s="43">
+      <c r="C11" s="41">
         <v>5.8250000000000003E-2</v>
       </c>
-      <c r="D11" s="43">
+      <c r="D11" s="41">
         <v>4.392E-4</v>
       </c>
-      <c r="E11" s="43">
+      <c r="E11" s="41">
         <v>5.8180000000000003E-2</v>
       </c>
-      <c r="F11" s="43">
+      <c r="F11" s="41">
         <v>5.6710000000000003E-2</v>
       </c>
-      <c r="G11" s="43">
+      <c r="G11" s="41">
         <v>6.0449999999999997E-2</v>
       </c>
-      <c r="H11" s="43">
+      <c r="H11" s="41">
         <v>595</v>
       </c>
-      <c r="I11" s="43">
+      <c r="I11" s="41">
         <v>595</v>
       </c>
-      <c r="J11" s="43">
+      <c r="J11" s="41">
         <v>1311</v>
       </c>
-      <c r="K11" s="43">
+      <c r="K11" s="41">
         <v>5.8220000000000001E-2</v>
       </c>
-      <c r="L11" s="43">
+      <c r="L11" s="41">
         <v>100</v>
       </c>
-      <c r="M11" s="43">
+      <c r="M11" s="41">
         <v>1311</v>
       </c>
-      <c r="N11" s="43">
+      <c r="N11" s="41">
         <v>1.4</v>
       </c>
-      <c r="O11" s="43">
+      <c r="O11" s="41">
         <f>Table2[[#This Row],[IntDen]]/$J$16</f>
         <v>0.1271580989330747</v>
       </c>
@@ -11301,46 +11890,46 @@
       <c r="A12" t="s">
         <v>106</v>
       </c>
-      <c r="B12" s="43">
+      <c r="B12" s="41">
         <v>22500</v>
       </c>
-      <c r="C12" s="43">
+      <c r="C12" s="41">
         <v>6.5839999999999996E-2</v>
       </c>
-      <c r="D12" s="43">
+      <c r="D12" s="41">
         <v>4.3590000000000002E-4</v>
       </c>
-      <c r="E12" s="43">
+      <c r="E12" s="41">
         <v>6.5729999999999997E-2</v>
       </c>
-      <c r="F12" s="43">
+      <c r="F12" s="41">
         <v>6.4350000000000004E-2</v>
       </c>
-      <c r="G12" s="43">
+      <c r="G12" s="41">
         <v>6.7820000000000005E-2</v>
       </c>
-      <c r="H12" s="43">
+      <c r="H12" s="41">
         <v>595</v>
       </c>
-      <c r="I12" s="43">
+      <c r="I12" s="41">
         <v>595</v>
       </c>
-      <c r="J12" s="43">
+      <c r="J12" s="41">
         <v>1481</v>
       </c>
-      <c r="K12" s="43">
+      <c r="K12" s="41">
         <v>6.5799999999999997E-2</v>
       </c>
-      <c r="L12" s="43">
+      <c r="L12" s="41">
         <v>100</v>
       </c>
-      <c r="M12" s="43">
+      <c r="M12" s="41">
         <v>1481</v>
       </c>
-      <c r="N12" s="43">
+      <c r="N12" s="41">
         <v>1.6</v>
       </c>
-      <c r="O12" s="43">
+      <c r="O12" s="41">
         <f>Table2[[#This Row],[IntDen]]/$J$16</f>
         <v>0.14364694471387002</v>
       </c>
@@ -11349,46 +11938,46 @@
       <c r="A13" t="s">
         <v>98</v>
       </c>
-      <c r="B13" s="43">
+      <c r="B13" s="41">
         <v>22500</v>
       </c>
-      <c r="C13" s="43">
+      <c r="C13" s="41">
         <v>8.0979999999999996E-2</v>
       </c>
-      <c r="D13" s="43">
+      <c r="D13" s="41">
         <v>4.3810000000000002E-4</v>
       </c>
-      <c r="E13" s="43">
+      <c r="E13" s="41">
         <v>8.0949999999999994E-2</v>
       </c>
-      <c r="F13" s="43">
+      <c r="F13" s="41">
         <v>7.9420000000000004E-2</v>
       </c>
-      <c r="G13" s="43">
+      <c r="G13" s="41">
         <v>8.3019999999999997E-2</v>
       </c>
-      <c r="H13" s="43">
+      <c r="H13" s="41">
         <v>595</v>
       </c>
-      <c r="I13" s="43">
+      <c r="I13" s="41">
         <v>595</v>
       </c>
-      <c r="J13" s="43">
+      <c r="J13" s="41">
         <v>1822</v>
       </c>
-      <c r="K13" s="43">
+      <c r="K13" s="41">
         <v>8.0949999999999994E-2</v>
       </c>
-      <c r="L13" s="43">
+      <c r="L13" s="41">
         <v>100</v>
       </c>
-      <c r="M13" s="43">
+      <c r="M13" s="41">
         <v>1822</v>
       </c>
-      <c r="N13" s="43">
+      <c r="N13" s="41">
         <v>2</v>
       </c>
-      <c r="O13" s="43">
+      <c r="O13" s="41">
         <f>Table2[[#This Row],[IntDen]]/$J$16</f>
         <v>0.17672162948593598</v>
       </c>
@@ -11397,46 +11986,46 @@
       <c r="A14" t="s">
         <v>102</v>
       </c>
-      <c r="B14" s="43">
+      <c r="B14" s="41">
         <v>22500</v>
       </c>
-      <c r="C14" s="43">
+      <c r="C14" s="41">
         <v>4.411E-3</v>
       </c>
-      <c r="D14" s="43">
+      <c r="D14" s="41">
         <v>5.0299999999999997E-4</v>
       </c>
-      <c r="E14" s="43">
+      <c r="E14" s="41">
         <v>4.1000000000000003E-3</v>
       </c>
-      <c r="F14" s="43">
+      <c r="F14" s="41">
         <v>3.3700000000000002E-3</v>
       </c>
-      <c r="G14" s="43">
+      <c r="G14" s="41">
         <v>6.3140000000000002E-3</v>
       </c>
-      <c r="H14" s="43">
+      <c r="H14" s="41">
         <v>595</v>
       </c>
-      <c r="I14" s="43">
+      <c r="I14" s="41">
         <v>595</v>
       </c>
-      <c r="J14" s="43">
+      <c r="J14" s="41">
         <v>99.25</v>
       </c>
-      <c r="K14" s="43">
+      <c r="K14" s="41">
         <v>4.3E-3</v>
       </c>
-      <c r="L14" s="43">
+      <c r="L14" s="41">
         <v>100</v>
       </c>
-      <c r="M14" s="43">
+      <c r="M14" s="41">
         <v>99.25</v>
       </c>
       <c r="N14" t="s">
         <v>111</v>
       </c>
-      <c r="O14" s="43">
+      <c r="O14" s="41">
         <f>Table2[[#This Row],[IntDen]]/$J$16</f>
         <v>9.6265761396702228E-3</v>
       </c>
@@ -11445,46 +12034,46 @@
       <c r="A15" t="s">
         <v>103</v>
       </c>
-      <c r="B15" s="43">
+      <c r="B15" s="41">
         <v>22500</v>
       </c>
-      <c r="C15" s="43">
+      <c r="C15" s="41">
         <v>4.313E-3</v>
       </c>
-      <c r="D15" s="43">
+      <c r="D15" s="41">
         <v>4.4079999999999998E-4</v>
       </c>
-      <c r="E15" s="43">
+      <c r="E15" s="41">
         <v>4.0439999999999999E-3</v>
       </c>
-      <c r="F15" s="43">
+      <c r="F15" s="41">
         <v>3.3400000000000001E-3</v>
       </c>
-      <c r="G15" s="43">
+      <c r="G15" s="41">
         <v>6.4739999999999997E-3</v>
       </c>
-      <c r="H15" s="43">
+      <c r="H15" s="41">
         <v>595</v>
       </c>
-      <c r="I15" s="43">
+      <c r="I15" s="41">
         <v>595</v>
       </c>
-      <c r="J15" s="43">
+      <c r="J15" s="41">
         <v>97.05</v>
       </c>
-      <c r="K15" s="43">
+      <c r="K15" s="41">
         <v>4.2389999999999997E-3</v>
       </c>
-      <c r="L15" s="43">
+      <c r="L15" s="41">
         <v>100</v>
       </c>
-      <c r="M15" s="43">
+      <c r="M15" s="41">
         <v>97.05</v>
       </c>
       <c r="N15" t="s">
         <v>112</v>
       </c>
-      <c r="O15" s="43">
+      <c r="O15" s="41">
         <f>Table2[[#This Row],[IntDen]]/$J$16</f>
         <v>9.4131910766246368E-3</v>
       </c>
@@ -11493,46 +12082,46 @@
       <c r="A16" t="s">
         <v>100</v>
       </c>
-      <c r="B16" s="43">
+      <c r="B16" s="41">
         <v>22500</v>
       </c>
-      <c r="C16" s="43">
+      <c r="C16" s="41">
         <v>0.4582</v>
       </c>
-      <c r="D16" s="43">
+      <c r="D16" s="41">
         <v>9.2559999999999995E-4</v>
       </c>
-      <c r="E16" s="43">
+      <c r="E16" s="41">
         <v>0.45850000000000002</v>
       </c>
-      <c r="F16" s="43">
+      <c r="F16" s="41">
         <v>0.45319999999999999</v>
       </c>
-      <c r="G16" s="43">
+      <c r="G16" s="41">
         <v>0.46279999999999999</v>
       </c>
-      <c r="H16" s="43">
+      <c r="H16" s="41">
         <v>595</v>
       </c>
-      <c r="I16" s="43">
+      <c r="I16" s="41">
         <v>595</v>
       </c>
-      <c r="J16" s="43">
+      <c r="J16" s="41">
         <v>10310</v>
       </c>
-      <c r="K16" s="43">
+      <c r="K16" s="41">
         <v>0.45829999999999999</v>
       </c>
-      <c r="L16" s="43">
+      <c r="L16" s="41">
         <v>100</v>
       </c>
-      <c r="M16" s="43">
+      <c r="M16" s="41">
         <v>10310</v>
       </c>
       <c r="N16" t="s">
         <v>121</v>
       </c>
-      <c r="O16" s="43">
+      <c r="O16" s="41">
         <f>Table2[[#This Row],[IntDen]]/$J$16</f>
         <v>1</v>
       </c>
@@ -11555,19 +12144,19 @@
       <c r="A19" t="s">
         <v>113</v>
       </c>
-      <c r="B19" s="48">
+      <c r="B19" s="46">
         <f>AVERAGE(O14:O15)</f>
         <v>9.5198836081474298E-3</v>
       </c>
-      <c r="C19" s="47">
+      <c r="C19" s="45">
         <v>1.46E-2</v>
       </c>
-      <c r="D19" s="46">
+      <c r="D19" s="44">
         <f>1-TRANSMISSION_6X</f>
         <v>0.99048011639185252</v>
       </c>
-      <c r="E19" s="47">
-        <v>10</v>
+      <c r="E19" s="45">
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:29" ht="18" x14ac:dyDescent="0.25">
@@ -11577,7 +12166,7 @@
       <c r="C21" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="D21" s="51" t="s">
+      <c r="D21" s="49" t="s">
         <v>150</v>
       </c>
       <c r="E21" s="13" t="s">
@@ -11588,24 +12177,24 @@
       <c r="A22" t="s">
         <v>119</v>
       </c>
-      <c r="B22" s="46">
+      <c r="B22" s="44">
         <f t="array" ref="B22:C22">LINEST(O7:O13,N7:N13)</f>
         <v>8.2374903628540899E-2</v>
       </c>
-      <c r="C22" s="46">
+      <c r="C22" s="44">
         <v>1.1851824218458526E-2</v>
       </c>
-      <c r="D22" s="46">
+      <c r="D22" s="44">
         <f>C22/B22</f>
         <v>0.14387663834974318</v>
       </c>
-      <c r="E22" s="49">
+      <c r="E22" s="47">
         <f>D22 - (E19*TRANSMISSION_6X/D19)</f>
-        <v>4.776280980741246E-2</v>
+        <v>2.8540044098946296E-2</v>
       </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A24" s="45" t="s">
+      <c r="A24" s="43" t="s">
         <v>123</v>
       </c>
     </row>
@@ -11699,86 +12288,86 @@
       <c r="A26" t="s">
         <v>124</v>
       </c>
-      <c r="B26" s="43">
+      <c r="B26" s="41">
         <v>22500</v>
       </c>
-      <c r="C26" s="43">
+      <c r="C26" s="41">
         <v>2.2490000000000001E-3</v>
       </c>
-      <c r="D26" s="43">
+      <c r="D26" s="41">
         <v>3.1619999999999999E-4</v>
       </c>
-      <c r="E26" s="43">
+      <c r="E26" s="41">
         <v>2.0530000000000001E-3</v>
       </c>
-      <c r="F26" s="43">
+      <c r="F26" s="41">
         <v>1.4419999999999999E-3</v>
       </c>
-      <c r="G26" s="43">
+      <c r="G26" s="41">
         <v>4.1619999999999999E-3</v>
       </c>
-      <c r="H26" s="43">
+      <c r="H26" s="41">
         <v>595</v>
       </c>
-      <c r="I26" s="43">
+      <c r="I26" s="41">
         <v>595</v>
       </c>
-      <c r="J26" s="43">
+      <c r="J26" s="41">
         <v>50.61</v>
       </c>
-      <c r="K26" s="43">
+      <c r="K26" s="41">
         <v>2.2070000000000002E-3</v>
       </c>
-      <c r="L26" s="43">
+      <c r="L26" s="41">
         <v>100</v>
       </c>
-      <c r="M26" s="43">
+      <c r="M26" s="41">
         <v>50.61</v>
       </c>
       <c r="N26" t="s">
         <v>111</v>
       </c>
-      <c r="O26" s="43">
+      <c r="O26" s="41">
         <f>Table3[[#This Row],[IntDen]]/$J$28</f>
         <v>4.725490196078431E-3</v>
       </c>
       <c r="Q26" t="s">
         <v>124</v>
       </c>
-      <c r="R26" s="43">
+      <c r="R26" s="41">
         <v>22500</v>
       </c>
-      <c r="S26" s="43">
+      <c r="S26" s="41">
         <v>2.2490000000000001E-3</v>
       </c>
-      <c r="T26" s="43">
+      <c r="T26" s="41">
         <v>3.1619999999999999E-4</v>
       </c>
-      <c r="U26" s="43">
+      <c r="U26" s="41">
         <v>2.0530000000000001E-3</v>
       </c>
-      <c r="V26" s="43">
+      <c r="V26" s="41">
         <v>1.4419999999999999E-3</v>
       </c>
-      <c r="W26" s="43">
+      <c r="W26" s="41">
         <v>4.1619999999999999E-3</v>
       </c>
-      <c r="X26" s="43">
+      <c r="X26" s="41">
         <v>595</v>
       </c>
-      <c r="Y26" s="43">
+      <c r="Y26" s="41">
         <v>595</v>
       </c>
-      <c r="Z26" s="43">
+      <c r="Z26" s="41">
         <v>50.61</v>
       </c>
-      <c r="AA26" s="43">
+      <c r="AA26" s="41">
         <v>2.2070000000000002E-3</v>
       </c>
-      <c r="AB26" s="43">
+      <c r="AB26" s="41">
         <v>100</v>
       </c>
-      <c r="AC26" s="43">
+      <c r="AC26" s="41">
         <v>50.61</v>
       </c>
     </row>
@@ -11786,86 +12375,86 @@
       <c r="A27" t="s">
         <v>125</v>
       </c>
-      <c r="B27" s="43">
+      <c r="B27" s="41">
         <v>22500</v>
       </c>
-      <c r="C27" s="43">
+      <c r="C27" s="41">
         <v>2.3240000000000001E-3</v>
       </c>
-      <c r="D27" s="43">
+      <c r="D27" s="41">
         <v>3.547E-4</v>
       </c>
-      <c r="E27" s="43">
+      <c r="E27" s="41">
         <v>2.1879999999999998E-3</v>
       </c>
-      <c r="F27" s="43">
+      <c r="F27" s="41">
         <v>1.524E-3</v>
       </c>
-      <c r="G27" s="43">
+      <c r="G27" s="41">
         <v>3.7469999999999999E-3</v>
       </c>
-      <c r="H27" s="43">
+      <c r="H27" s="41">
         <v>595</v>
       </c>
-      <c r="I27" s="43">
+      <c r="I27" s="41">
         <v>595</v>
       </c>
-      <c r="J27" s="43">
+      <c r="J27" s="41">
         <v>52.3</v>
       </c>
-      <c r="K27" s="43">
+      <c r="K27" s="41">
         <v>2.2560000000000002E-3</v>
       </c>
-      <c r="L27" s="43">
+      <c r="L27" s="41">
         <v>100</v>
       </c>
-      <c r="M27" s="43">
+      <c r="M27" s="41">
         <v>52.3</v>
       </c>
       <c r="N27" t="s">
         <v>112</v>
       </c>
-      <c r="O27" s="43">
+      <c r="O27" s="41">
         <f>Table3[[#This Row],[IntDen]]/$J$28</f>
         <v>4.88328664799253E-3</v>
       </c>
       <c r="Q27" t="s">
         <v>125</v>
       </c>
-      <c r="R27" s="43">
+      <c r="R27" s="41">
         <v>22500</v>
       </c>
-      <c r="S27" s="43">
+      <c r="S27" s="41">
         <v>2.3240000000000001E-3</v>
       </c>
-      <c r="T27" s="43">
+      <c r="T27" s="41">
         <v>3.547E-4</v>
       </c>
-      <c r="U27" s="43">
+      <c r="U27" s="41">
         <v>2.1879999999999998E-3</v>
       </c>
-      <c r="V27" s="43">
+      <c r="V27" s="41">
         <v>1.524E-3</v>
       </c>
-      <c r="W27" s="43">
+      <c r="W27" s="41">
         <v>3.7469999999999999E-3</v>
       </c>
-      <c r="X27" s="43">
+      <c r="X27" s="41">
         <v>595</v>
       </c>
-      <c r="Y27" s="43">
+      <c r="Y27" s="41">
         <v>595</v>
       </c>
-      <c r="Z27" s="43">
+      <c r="Z27" s="41">
         <v>52.3</v>
       </c>
-      <c r="AA27" s="43">
+      <c r="AA27" s="41">
         <v>2.2560000000000002E-3</v>
       </c>
-      <c r="AB27" s="43">
+      <c r="AB27" s="41">
         <v>100</v>
       </c>
-      <c r="AC27" s="43">
+      <c r="AC27" s="41">
         <v>52.3</v>
       </c>
     </row>
@@ -11873,86 +12462,86 @@
       <c r="A28" t="s">
         <v>127</v>
       </c>
-      <c r="B28" s="43">
+      <c r="B28" s="41">
         <v>22500</v>
       </c>
-      <c r="C28" s="43">
+      <c r="C28" s="41">
         <v>0.47620000000000001</v>
       </c>
-      <c r="D28" s="43">
+      <c r="D28" s="41">
         <v>4.3119999999999999E-3</v>
       </c>
-      <c r="E28" s="43">
+      <c r="E28" s="41">
         <v>0.47910000000000003</v>
       </c>
-      <c r="F28" s="43">
+      <c r="F28" s="41">
         <v>0.4632</v>
       </c>
-      <c r="G28" s="43">
+      <c r="G28" s="41">
         <v>0.48730000000000001</v>
       </c>
-      <c r="H28" s="43">
+      <c r="H28" s="41">
         <v>595</v>
       </c>
-      <c r="I28" s="43">
+      <c r="I28" s="41">
         <v>595</v>
       </c>
-      <c r="J28" s="43">
+      <c r="J28" s="41">
         <v>10710</v>
       </c>
-      <c r="K28" s="43">
+      <c r="K28" s="41">
         <v>0.47670000000000001</v>
       </c>
-      <c r="L28" s="43">
+      <c r="L28" s="41">
         <v>100</v>
       </c>
-      <c r="M28" s="43">
+      <c r="M28" s="41">
         <v>10710</v>
       </c>
       <c r="N28" t="s">
         <v>121</v>
       </c>
-      <c r="O28" s="43">
+      <c r="O28" s="41">
         <f>Table3[[#This Row],[IntDen]]/$J$28</f>
         <v>1</v>
       </c>
       <c r="Q28" t="s">
         <v>127</v>
       </c>
-      <c r="R28" s="43">
+      <c r="R28" s="41">
         <v>22500</v>
       </c>
-      <c r="S28" s="43">
+      <c r="S28" s="41">
         <v>0.47620000000000001</v>
       </c>
-      <c r="T28" s="43">
+      <c r="T28" s="41">
         <v>4.3119999999999999E-3</v>
       </c>
-      <c r="U28" s="43">
+      <c r="U28" s="41">
         <v>0.47910000000000003</v>
       </c>
-      <c r="V28" s="43">
+      <c r="V28" s="41">
         <v>0.4632</v>
       </c>
-      <c r="W28" s="43">
+      <c r="W28" s="41">
         <v>0.48730000000000001</v>
       </c>
-      <c r="X28" s="43">
+      <c r="X28" s="41">
         <v>595</v>
       </c>
-      <c r="Y28" s="43">
+      <c r="Y28" s="41">
         <v>595</v>
       </c>
-      <c r="Z28" s="43">
+      <c r="Z28" s="41">
         <v>10710</v>
       </c>
-      <c r="AA28" s="43">
+      <c r="AA28" s="41">
         <v>0.47670000000000001</v>
       </c>
-      <c r="AB28" s="43">
+      <c r="AB28" s="41">
         <v>100</v>
       </c>
-      <c r="AC28" s="43">
+      <c r="AC28" s="41">
         <v>10710</v>
       </c>
     </row>
@@ -11960,86 +12549,86 @@
       <c r="A29" t="s">
         <v>128</v>
       </c>
-      <c r="B29" s="43">
+      <c r="B29" s="41">
         <v>22500</v>
       </c>
-      <c r="C29" s="43">
+      <c r="C29" s="41">
         <v>2.588E-2</v>
       </c>
-      <c r="D29" s="43">
+      <c r="D29" s="41">
         <v>4.2000000000000002E-4</v>
       </c>
-      <c r="E29" s="43">
+      <c r="E29" s="41">
         <v>2.5839999999999998E-2</v>
       </c>
-      <c r="F29" s="43">
+      <c r="F29" s="41">
         <v>2.4670000000000001E-2</v>
       </c>
-      <c r="G29" s="43">
+      <c r="G29" s="41">
         <v>2.76E-2</v>
       </c>
-      <c r="H29" s="43">
+      <c r="H29" s="41">
         <v>595</v>
       </c>
-      <c r="I29" s="43">
+      <c r="I29" s="41">
         <v>595</v>
       </c>
-      <c r="J29" s="43">
+      <c r="J29" s="41">
         <v>582.4</v>
       </c>
-      <c r="K29" s="43">
+      <c r="K29" s="41">
         <v>2.5860000000000001E-2</v>
       </c>
-      <c r="L29" s="43">
+      <c r="L29" s="41">
         <v>100</v>
       </c>
-      <c r="M29" s="43">
+      <c r="M29" s="41">
         <v>582.4</v>
       </c>
-      <c r="N29" s="52">
+      <c r="N29" s="50">
         <v>0.6</v>
       </c>
-      <c r="O29" s="43">
+      <c r="O29" s="41">
         <f>Table3[[#This Row],[IntDen]]/$J$28</f>
         <v>5.437908496732026E-2</v>
       </c>
       <c r="Q29" t="s">
         <v>128</v>
       </c>
-      <c r="R29" s="43">
+      <c r="R29" s="41">
         <v>22500</v>
       </c>
-      <c r="S29" s="43">
+      <c r="S29" s="41">
         <v>2.588E-2</v>
       </c>
-      <c r="T29" s="43">
+      <c r="T29" s="41">
         <v>4.2000000000000002E-4</v>
       </c>
-      <c r="U29" s="43">
+      <c r="U29" s="41">
         <v>2.5839999999999998E-2</v>
       </c>
-      <c r="V29" s="43">
+      <c r="V29" s="41">
         <v>2.4670000000000001E-2</v>
       </c>
-      <c r="W29" s="43">
+      <c r="W29" s="41">
         <v>2.76E-2</v>
       </c>
-      <c r="X29" s="43">
+      <c r="X29" s="41">
         <v>595</v>
       </c>
-      <c r="Y29" s="43">
+      <c r="Y29" s="41">
         <v>595</v>
       </c>
-      <c r="Z29" s="43">
+      <c r="Z29" s="41">
         <v>582.4</v>
       </c>
-      <c r="AA29" s="43">
+      <c r="AA29" s="41">
         <v>2.5860000000000001E-2</v>
       </c>
-      <c r="AB29" s="43">
+      <c r="AB29" s="41">
         <v>100</v>
       </c>
-      <c r="AC29" s="43">
+      <c r="AC29" s="41">
         <v>582.4</v>
       </c>
     </row>
@@ -12047,86 +12636,86 @@
       <c r="A30" t="s">
         <v>131</v>
       </c>
-      <c r="B30" s="43">
+      <c r="B30" s="41">
         <v>22500</v>
       </c>
-      <c r="C30" s="43">
+      <c r="C30" s="41">
         <v>1.8020000000000001E-2</v>
       </c>
-      <c r="D30" s="43">
+      <c r="D30" s="41">
         <v>3.8729999999999998E-4</v>
       </c>
-      <c r="E30" s="43">
+      <c r="E30" s="41">
         <v>1.7940000000000001E-2</v>
       </c>
-      <c r="F30" s="43">
+      <c r="F30" s="41">
         <v>1.6910000000000001E-2</v>
       </c>
-      <c r="G30" s="43">
+      <c r="G30" s="41">
         <v>1.9779999999999999E-2</v>
       </c>
-      <c r="H30" s="43">
+      <c r="H30" s="41">
         <v>595</v>
       </c>
-      <c r="I30" s="43">
+      <c r="I30" s="41">
         <v>595</v>
       </c>
-      <c r="J30" s="43">
+      <c r="J30" s="41">
         <v>405.5</v>
       </c>
-      <c r="K30" s="43">
+      <c r="K30" s="41">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="L30" s="43">
+      <c r="L30" s="41">
         <v>100</v>
       </c>
-      <c r="M30" s="43">
+      <c r="M30" s="41">
         <v>405.5</v>
       </c>
-      <c r="N30" s="52">
+      <c r="N30" s="50">
         <v>0.4</v>
       </c>
-      <c r="O30" s="43">
+      <c r="O30" s="41">
         <f>Table3[[#This Row],[IntDen]]/$J$28</f>
         <v>3.7861811391223153E-2</v>
       </c>
       <c r="Q30" t="s">
         <v>131</v>
       </c>
-      <c r="R30" s="43">
+      <c r="R30" s="41">
         <v>22500</v>
       </c>
-      <c r="S30" s="43">
+      <c r="S30" s="41">
         <v>1.8020000000000001E-2</v>
       </c>
-      <c r="T30" s="43">
+      <c r="T30" s="41">
         <v>3.8729999999999998E-4</v>
       </c>
-      <c r="U30" s="43">
+      <c r="U30" s="41">
         <v>1.7940000000000001E-2</v>
       </c>
-      <c r="V30" s="43">
+      <c r="V30" s="41">
         <v>1.6910000000000001E-2</v>
       </c>
-      <c r="W30" s="43">
+      <c r="W30" s="41">
         <v>1.9779999999999999E-2</v>
       </c>
-      <c r="X30" s="43">
+      <c r="X30" s="41">
         <v>595</v>
       </c>
-      <c r="Y30" s="43">
+      <c r="Y30" s="41">
         <v>595</v>
       </c>
-      <c r="Z30" s="43">
+      <c r="Z30" s="41">
         <v>405.5</v>
       </c>
-      <c r="AA30" s="43">
+      <c r="AA30" s="41">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="AB30" s="43">
+      <c r="AB30" s="41">
         <v>100</v>
       </c>
-      <c r="AC30" s="43">
+      <c r="AC30" s="41">
         <v>405.5</v>
       </c>
     </row>
@@ -12134,86 +12723,86 @@
       <c r="A31" t="s">
         <v>129</v>
       </c>
-      <c r="B31" s="43">
+      <c r="B31" s="41">
         <v>22500</v>
       </c>
-      <c r="C31" s="43">
+      <c r="C31" s="41">
         <v>1.04E-2</v>
       </c>
-      <c r="D31" s="43">
+      <c r="D31" s="41">
         <v>3.5940000000000001E-4</v>
       </c>
-      <c r="E31" s="43">
+      <c r="E31" s="41">
         <v>1.039E-2</v>
       </c>
-      <c r="F31" s="43">
+      <c r="F31" s="41">
         <v>9.4210000000000006E-3</v>
       </c>
-      <c r="G31" s="43">
+      <c r="G31" s="41">
         <v>1.222E-2</v>
       </c>
-      <c r="H31" s="43">
+      <c r="H31" s="41">
         <v>595</v>
       </c>
-      <c r="I31" s="43">
+      <c r="I31" s="41">
         <v>595</v>
       </c>
-      <c r="J31" s="43">
+      <c r="J31" s="41">
         <v>234</v>
       </c>
-      <c r="K31" s="43">
+      <c r="K31" s="41">
         <v>1.038E-2</v>
       </c>
-      <c r="L31" s="43">
+      <c r="L31" s="41">
         <v>100</v>
       </c>
-      <c r="M31" s="43">
+      <c r="M31" s="41">
         <v>234</v>
       </c>
-      <c r="N31" s="52">
+      <c r="N31" s="50">
         <v>0.2</v>
       </c>
-      <c r="O31" s="43">
+      <c r="O31" s="41">
         <f>Table3[[#This Row],[IntDen]]/$J$28</f>
         <v>2.1848739495798318E-2</v>
       </c>
       <c r="Q31" t="s">
         <v>129</v>
       </c>
-      <c r="R31" s="43">
+      <c r="R31" s="41">
         <v>22500</v>
       </c>
-      <c r="S31" s="43">
+      <c r="S31" s="41">
         <v>1.04E-2</v>
       </c>
-      <c r="T31" s="43">
+      <c r="T31" s="41">
         <v>3.5940000000000001E-4</v>
       </c>
-      <c r="U31" s="43">
+      <c r="U31" s="41">
         <v>1.039E-2</v>
       </c>
-      <c r="V31" s="43">
+      <c r="V31" s="41">
         <v>9.4210000000000006E-3</v>
       </c>
-      <c r="W31" s="43">
+      <c r="W31" s="41">
         <v>1.222E-2</v>
       </c>
-      <c r="X31" s="43">
+      <c r="X31" s="41">
         <v>595</v>
       </c>
-      <c r="Y31" s="43">
+      <c r="Y31" s="41">
         <v>595</v>
       </c>
-      <c r="Z31" s="43">
+      <c r="Z31" s="41">
         <v>234</v>
       </c>
-      <c r="AA31" s="43">
+      <c r="AA31" s="41">
         <v>1.038E-2</v>
       </c>
-      <c r="AB31" s="43">
+      <c r="AB31" s="41">
         <v>100</v>
       </c>
-      <c r="AC31" s="43">
+      <c r="AC31" s="41">
         <v>234</v>
       </c>
     </row>
@@ -12221,86 +12810,86 @@
       <c r="A32" t="s">
         <v>126</v>
       </c>
-      <c r="B32" s="43">
+      <c r="B32" s="41">
         <v>22500</v>
       </c>
-      <c r="C32" s="43">
+      <c r="C32" s="41">
         <v>8.1189999999999998E-2</v>
       </c>
-      <c r="D32" s="43">
+      <c r="D32" s="41">
         <v>8.2180000000000003E-4</v>
       </c>
-      <c r="E32" s="43">
+      <c r="E32" s="41">
         <v>8.1640000000000004E-2</v>
       </c>
-      <c r="F32" s="43">
+      <c r="F32" s="41">
         <v>7.8829999999999997E-2</v>
       </c>
-      <c r="G32" s="43">
+      <c r="G32" s="41">
         <v>8.3949999999999997E-2</v>
       </c>
-      <c r="H32" s="43">
+      <c r="H32" s="41">
         <v>595</v>
       </c>
-      <c r="I32" s="43">
+      <c r="I32" s="41">
         <v>595</v>
       </c>
-      <c r="J32" s="43">
+      <c r="J32" s="41">
         <v>1827</v>
       </c>
-      <c r="K32" s="43">
+      <c r="K32" s="41">
         <v>8.1269999999999995E-2</v>
       </c>
-      <c r="L32" s="43">
+      <c r="L32" s="41">
         <v>100</v>
       </c>
-      <c r="M32" s="43">
+      <c r="M32" s="41">
         <v>1827</v>
       </c>
-      <c r="N32" s="52">
+      <c r="N32" s="50">
         <v>2</v>
       </c>
-      <c r="O32" s="43">
+      <c r="O32" s="41">
         <f>Table3[[#This Row],[IntDen]]/$J$28</f>
         <v>0.17058823529411765</v>
       </c>
       <c r="Q32" t="s">
         <v>126</v>
       </c>
-      <c r="R32" s="43">
+      <c r="R32" s="41">
         <v>22500</v>
       </c>
-      <c r="S32" s="43">
+      <c r="S32" s="41">
         <v>8.1189999999999998E-2</v>
       </c>
-      <c r="T32" s="43">
+      <c r="T32" s="41">
         <v>8.2180000000000003E-4</v>
       </c>
-      <c r="U32" s="43">
+      <c r="U32" s="41">
         <v>8.1640000000000004E-2</v>
       </c>
-      <c r="V32" s="43">
+      <c r="V32" s="41">
         <v>7.8829999999999997E-2</v>
       </c>
-      <c r="W32" s="43">
+      <c r="W32" s="41">
         <v>8.3949999999999997E-2</v>
       </c>
-      <c r="X32" s="43">
+      <c r="X32" s="41">
         <v>595</v>
       </c>
-      <c r="Y32" s="43">
+      <c r="Y32" s="41">
         <v>595</v>
       </c>
-      <c r="Z32" s="43">
+      <c r="Z32" s="41">
         <v>1827</v>
       </c>
-      <c r="AA32" s="43">
+      <c r="AA32" s="41">
         <v>8.1269999999999995E-2</v>
       </c>
-      <c r="AB32" s="43">
+      <c r="AB32" s="41">
         <v>100</v>
       </c>
-      <c r="AC32" s="43">
+      <c r="AC32" s="41">
         <v>1827</v>
       </c>
     </row>
@@ -12308,86 +12897,86 @@
       <c r="A33" t="s">
         <v>132</v>
       </c>
-      <c r="B33" s="43">
+      <c r="B33" s="41">
         <v>22500</v>
       </c>
-      <c r="C33" s="43">
+      <c r="C33" s="41">
         <v>6.5369999999999998E-2</v>
       </c>
-      <c r="D33" s="43">
+      <c r="D33" s="41">
         <v>6.9519999999999998E-4</v>
       </c>
-      <c r="E33" s="43">
+      <c r="E33" s="41">
         <v>6.5699999999999995E-2</v>
       </c>
-      <c r="F33" s="43">
+      <c r="F33" s="41">
         <v>6.3329999999999997E-2</v>
       </c>
-      <c r="G33" s="43">
+      <c r="G33" s="41">
         <v>6.7640000000000006E-2</v>
       </c>
-      <c r="H33" s="43">
+      <c r="H33" s="41">
         <v>595</v>
       </c>
-      <c r="I33" s="43">
+      <c r="I33" s="41">
         <v>595</v>
       </c>
-      <c r="J33" s="43">
+      <c r="J33" s="41">
         <v>1471</v>
       </c>
-      <c r="K33" s="43">
+      <c r="K33" s="41">
         <v>6.5420000000000006E-2</v>
       </c>
-      <c r="L33" s="43">
+      <c r="L33" s="41">
         <v>100</v>
       </c>
-      <c r="M33" s="43">
+      <c r="M33" s="41">
         <v>1471</v>
       </c>
-      <c r="N33" s="52">
+      <c r="N33" s="50">
         <v>1.6</v>
       </c>
-      <c r="O33" s="43">
+      <c r="O33" s="41">
         <f>Table3[[#This Row],[IntDen]]/$J$28</f>
         <v>0.1373482726423903</v>
       </c>
       <c r="Q33" t="s">
         <v>132</v>
       </c>
-      <c r="R33" s="43">
+      <c r="R33" s="41">
         <v>22500</v>
       </c>
-      <c r="S33" s="43">
+      <c r="S33" s="41">
         <v>6.5369999999999998E-2</v>
       </c>
-      <c r="T33" s="43">
+      <c r="T33" s="41">
         <v>6.9519999999999998E-4</v>
       </c>
-      <c r="U33" s="43">
+      <c r="U33" s="41">
         <v>6.5699999999999995E-2</v>
       </c>
-      <c r="V33" s="43">
+      <c r="V33" s="41">
         <v>6.3329999999999997E-2</v>
       </c>
-      <c r="W33" s="43">
+      <c r="W33" s="41">
         <v>6.7640000000000006E-2</v>
       </c>
-      <c r="X33" s="43">
+      <c r="X33" s="41">
         <v>595</v>
       </c>
-      <c r="Y33" s="43">
+      <c r="Y33" s="41">
         <v>595</v>
       </c>
-      <c r="Z33" s="43">
+      <c r="Z33" s="41">
         <v>1471</v>
       </c>
-      <c r="AA33" s="43">
+      <c r="AA33" s="41">
         <v>6.5420000000000006E-2</v>
       </c>
-      <c r="AB33" s="43">
+      <c r="AB33" s="41">
         <v>100</v>
       </c>
-      <c r="AC33" s="43">
+      <c r="AC33" s="41">
         <v>1471</v>
       </c>
     </row>
@@ -12395,86 +12984,86 @@
       <c r="A34" t="s">
         <v>133</v>
       </c>
-      <c r="B34" s="43">
+      <c r="B34" s="41">
         <v>22500</v>
       </c>
-      <c r="C34" s="43">
+      <c r="C34" s="41">
         <v>5.747E-2</v>
       </c>
-      <c r="D34" s="43">
+      <c r="D34" s="41">
         <v>6.3239999999999998E-4</v>
       </c>
-      <c r="E34" s="43">
+      <c r="E34" s="41">
         <v>5.7529999999999998E-2</v>
       </c>
-      <c r="F34" s="43">
+      <c r="F34" s="41">
         <v>5.5590000000000001E-2</v>
       </c>
-      <c r="G34" s="43">
+      <c r="G34" s="41">
         <v>5.9740000000000001E-2</v>
       </c>
-      <c r="H34" s="43">
+      <c r="H34" s="41">
         <v>595</v>
       </c>
-      <c r="I34" s="43">
+      <c r="I34" s="41">
         <v>595</v>
       </c>
-      <c r="J34" s="43">
+      <c r="J34" s="41">
         <v>1293</v>
       </c>
-      <c r="K34" s="43">
+      <c r="K34" s="41">
         <v>5.7500000000000002E-2</v>
       </c>
-      <c r="L34" s="43">
+      <c r="L34" s="41">
         <v>100</v>
       </c>
-      <c r="M34" s="43">
+      <c r="M34" s="41">
         <v>1293</v>
       </c>
-      <c r="N34" s="52">
+      <c r="N34" s="50">
         <v>1.4</v>
       </c>
-      <c r="O34" s="43">
+      <c r="O34" s="41">
         <f>Table3[[#This Row],[IntDen]]/$J$28</f>
         <v>0.12072829131652661</v>
       </c>
       <c r="Q34" t="s">
         <v>133</v>
       </c>
-      <c r="R34" s="43">
+      <c r="R34" s="41">
         <v>22500</v>
       </c>
-      <c r="S34" s="43">
+      <c r="S34" s="41">
         <v>5.747E-2</v>
       </c>
-      <c r="T34" s="43">
+      <c r="T34" s="41">
         <v>6.3239999999999998E-4</v>
       </c>
-      <c r="U34" s="43">
+      <c r="U34" s="41">
         <v>5.7529999999999998E-2</v>
       </c>
-      <c r="V34" s="43">
+      <c r="V34" s="41">
         <v>5.5590000000000001E-2</v>
       </c>
-      <c r="W34" s="43">
+      <c r="W34" s="41">
         <v>5.9740000000000001E-2</v>
       </c>
-      <c r="X34" s="43">
+      <c r="X34" s="41">
         <v>595</v>
       </c>
-      <c r="Y34" s="43">
+      <c r="Y34" s="41">
         <v>595</v>
       </c>
-      <c r="Z34" s="43">
+      <c r="Z34" s="41">
         <v>1293</v>
       </c>
-      <c r="AA34" s="43">
+      <c r="AA34" s="41">
         <v>5.7500000000000002E-2</v>
       </c>
-      <c r="AB34" s="43">
+      <c r="AB34" s="41">
         <v>100</v>
       </c>
-      <c r="AC34" s="43">
+      <c r="AC34" s="41">
         <v>1293</v>
       </c>
     </row>
@@ -12482,102 +13071,102 @@
       <c r="A35" t="s">
         <v>130</v>
       </c>
-      <c r="B35" s="43">
+      <c r="B35" s="41">
         <v>22500</v>
       </c>
-      <c r="C35" s="43">
+      <c r="C35" s="41">
         <v>4.1660000000000003E-2</v>
       </c>
-      <c r="D35" s="43">
+      <c r="D35" s="41">
         <v>5.1730000000000005E-4</v>
       </c>
-      <c r="E35" s="43">
+      <c r="E35" s="41">
         <v>4.1579999999999999E-2</v>
       </c>
-      <c r="F35" s="43">
+      <c r="F35" s="41">
         <v>4.0129999999999999E-2</v>
       </c>
-      <c r="G35" s="43">
+      <c r="G35" s="41">
         <v>4.3549999999999998E-2</v>
       </c>
-      <c r="H35" s="43">
+      <c r="H35" s="41">
         <v>595</v>
       </c>
-      <c r="I35" s="43">
+      <c r="I35" s="41">
         <v>595</v>
       </c>
-      <c r="J35" s="43">
+      <c r="J35" s="41">
         <v>937.4</v>
       </c>
-      <c r="K35" s="43">
+      <c r="K35" s="41">
         <v>4.1660000000000003E-2</v>
       </c>
-      <c r="L35" s="43">
+      <c r="L35" s="41">
         <v>100</v>
       </c>
-      <c r="M35" s="43">
+      <c r="M35" s="41">
         <v>937.4</v>
       </c>
-      <c r="N35" s="52">
+      <c r="N35" s="50">
         <v>1</v>
       </c>
-      <c r="O35" s="43">
+      <c r="O35" s="41">
         <f>Table3[[#This Row],[IntDen]]/$J$28</f>
         <v>8.7525676937441635E-2</v>
       </c>
       <c r="Q35" t="s">
         <v>130</v>
       </c>
-      <c r="R35" s="43">
+      <c r="R35" s="41">
         <v>22500</v>
       </c>
-      <c r="S35" s="43">
+      <c r="S35" s="41">
         <v>4.1660000000000003E-2</v>
       </c>
-      <c r="T35" s="43">
+      <c r="T35" s="41">
         <v>5.1730000000000005E-4</v>
       </c>
-      <c r="U35" s="43">
+      <c r="U35" s="41">
         <v>4.1579999999999999E-2</v>
       </c>
-      <c r="V35" s="43">
+      <c r="V35" s="41">
         <v>4.0129999999999999E-2</v>
       </c>
-      <c r="W35" s="43">
+      <c r="W35" s="41">
         <v>4.3549999999999998E-2</v>
       </c>
-      <c r="X35" s="43">
+      <c r="X35" s="41">
         <v>595</v>
       </c>
-      <c r="Y35" s="43">
+      <c r="Y35" s="41">
         <v>595</v>
       </c>
-      <c r="Z35" s="43">
+      <c r="Z35" s="41">
         <v>937.4</v>
       </c>
-      <c r="AA35" s="43">
+      <c r="AA35" s="41">
         <v>4.1660000000000003E-2</v>
       </c>
-      <c r="AB35" s="43">
+      <c r="AB35" s="41">
         <v>100</v>
       </c>
-      <c r="AC35" s="43">
+      <c r="AC35" s="41">
         <v>937.4</v>
       </c>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="R36" s="43"/>
-      <c r="S36" s="43"/>
-      <c r="T36" s="43"/>
-      <c r="U36" s="43"/>
-      <c r="V36" s="43"/>
-      <c r="W36" s="43"/>
-      <c r="X36" s="43"/>
-      <c r="Y36" s="43"/>
-      <c r="Z36" s="43"/>
-      <c r="AA36" s="43"/>
-      <c r="AB36" s="43"/>
-      <c r="AC36" s="43"/>
+      <c r="R36" s="41"/>
+      <c r="S36" s="41"/>
+      <c r="T36" s="41"/>
+      <c r="U36" s="41"/>
+      <c r="V36" s="41"/>
+      <c r="W36" s="41"/>
+      <c r="X36" s="41"/>
+      <c r="Y36" s="41"/>
+      <c r="Z36" s="41"/>
+      <c r="AA36" s="41"/>
+      <c r="AB36" s="41"/>
+      <c r="AC36" s="41"/>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B37" s="13" t="s">
@@ -12592,47 +13181,47 @@
       <c r="E37" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="R37" s="43"/>
-      <c r="S37" s="43"/>
-      <c r="T37" s="43"/>
-      <c r="U37" s="43"/>
-      <c r="V37" s="43"/>
-      <c r="W37" s="43"/>
-      <c r="X37" s="43"/>
-      <c r="Y37" s="43"/>
-      <c r="Z37" s="43"/>
-      <c r="AA37" s="43"/>
-      <c r="AB37" s="43"/>
-      <c r="AC37" s="43"/>
+      <c r="R37" s="41"/>
+      <c r="S37" s="41"/>
+      <c r="T37" s="41"/>
+      <c r="U37" s="41"/>
+      <c r="V37" s="41"/>
+      <c r="W37" s="41"/>
+      <c r="X37" s="41"/>
+      <c r="Y37" s="41"/>
+      <c r="Z37" s="41"/>
+      <c r="AA37" s="41"/>
+      <c r="AB37" s="41"/>
+      <c r="AC37" s="41"/>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>134</v>
       </c>
-      <c r="B38" s="48">
+      <c r="B38" s="46">
         <f t="array" ref="B38">AVERAGE(O26:O27)</f>
         <v>4.8043884220354809E-3</v>
       </c>
-      <c r="C38" s="47"/>
-      <c r="D38" s="46">
+      <c r="C38" s="45"/>
+      <c r="D38" s="44">
         <f>1-TRANSMISSION_6X_FFF</f>
         <v>0.99519561157796455</v>
       </c>
-      <c r="E38" s="47">
-        <v>10</v>
-      </c>
-      <c r="R38" s="43"/>
-      <c r="S38" s="43"/>
-      <c r="T38" s="43"/>
-      <c r="U38" s="43"/>
-      <c r="V38" s="43"/>
-      <c r="W38" s="43"/>
-      <c r="X38" s="43"/>
-      <c r="Y38" s="43"/>
-      <c r="Z38" s="43"/>
-      <c r="AA38" s="43"/>
-      <c r="AB38" s="43"/>
-      <c r="AC38" s="43"/>
+      <c r="E38" s="45">
+        <v>12</v>
+      </c>
+      <c r="R38" s="41"/>
+      <c r="S38" s="41"/>
+      <c r="T38" s="41"/>
+      <c r="U38" s="41"/>
+      <c r="V38" s="41"/>
+      <c r="W38" s="41"/>
+      <c r="X38" s="41"/>
+      <c r="Y38" s="41"/>
+      <c r="Z38" s="41"/>
+      <c r="AA38" s="41"/>
+      <c r="AB38" s="41"/>
+      <c r="AC38" s="41"/>
     </row>
     <row r="40" spans="1:29" ht="18" x14ac:dyDescent="0.25">
       <c r="B40" s="13" t="s">
@@ -12641,7 +13230,7 @@
       <c r="C40" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="D40" s="51" t="s">
+      <c r="D40" s="49" t="s">
         <v>150</v>
       </c>
       <c r="E40" s="13" t="s">
@@ -12652,24 +13241,24 @@
       <c r="A41" t="s">
         <v>135</v>
       </c>
-      <c r="B41" s="46">
+      <c r="B41" s="44">
         <f t="array" ref="B41:C41">LINEST(O29:O35,N29:N35)</f>
         <v>8.2763333253529359E-2</v>
       </c>
-      <c r="C41" s="46">
+      <c r="C41" s="44">
         <v>4.9120160884866398E-3</v>
       </c>
-      <c r="D41" s="46">
+      <c r="D41" s="44">
         <f>C41/B41</f>
         <v>5.9350148131898393E-2</v>
       </c>
-      <c r="E41" s="49">
+      <c r="E41" s="47">
         <f>D41 - (E38*TRANSMISSION_6X_FFF/D38)</f>
-        <v>1.1074328120818079E-2</v>
+        <v>1.4191641186020176E-3</v>
       </c>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A43" s="45" t="s">
+      <c r="A43" s="43" t="s">
         <v>137</v>
       </c>
     </row>
@@ -12724,46 +13313,46 @@
       <c r="A45" t="s">
         <v>139</v>
       </c>
-      <c r="B45" s="43">
+      <c r="B45" s="41">
         <v>22500</v>
       </c>
-      <c r="C45" s="43">
+      <c r="C45" s="41">
         <v>4.5909999999999999E-2</v>
       </c>
-      <c r="D45" s="43">
+      <c r="D45" s="41">
         <v>8.5340000000000004E-4</v>
       </c>
-      <c r="E45" s="43">
+      <c r="E45" s="41">
         <v>4.6219999999999997E-2</v>
       </c>
-      <c r="F45" s="43">
+      <c r="F45" s="41">
         <v>4.3639999999999998E-2</v>
       </c>
-      <c r="G45" s="43">
+      <c r="G45" s="41">
         <v>4.8710000000000003E-2</v>
       </c>
-      <c r="H45" s="43">
+      <c r="H45" s="41">
         <v>595</v>
       </c>
-      <c r="I45" s="43">
+      <c r="I45" s="41">
         <v>595</v>
       </c>
-      <c r="J45" s="43">
+      <c r="J45" s="41">
         <v>1033</v>
       </c>
-      <c r="K45" s="43">
+      <c r="K45" s="41">
         <v>4.5929999999999999E-2</v>
       </c>
-      <c r="L45" s="43">
+      <c r="L45" s="41">
         <v>100</v>
       </c>
-      <c r="M45" s="43">
+      <c r="M45" s="41">
         <v>1033</v>
       </c>
-      <c r="N45" s="52">
+      <c r="N45" s="50">
         <v>1</v>
       </c>
-      <c r="O45" s="43">
+      <c r="O45" s="41">
         <f>Table4[[#This Row],[IntDen]]/$J$52</f>
         <v>9.3231046931407949E-2</v>
       </c>
@@ -12772,46 +13361,46 @@
       <c r="A46" t="s">
         <v>141</v>
       </c>
-      <c r="B46" s="43">
+      <c r="B46" s="41">
         <v>22500</v>
       </c>
-      <c r="C46" s="43">
+      <c r="C46" s="41">
         <v>6.2170000000000003E-2</v>
       </c>
-      <c r="D46" s="43">
+      <c r="D46" s="41">
         <v>1.083E-3</v>
       </c>
-      <c r="E46" s="43">
+      <c r="E46" s="41">
         <v>6.2659999999999993E-2</v>
       </c>
-      <c r="F46" s="43">
+      <c r="F46" s="41">
         <v>5.9339999999999997E-2</v>
       </c>
-      <c r="G46" s="43">
+      <c r="G46" s="41">
         <v>6.5430000000000002E-2</v>
       </c>
-      <c r="H46" s="43">
+      <c r="H46" s="41">
         <v>595</v>
       </c>
-      <c r="I46" s="43">
+      <c r="I46" s="41">
         <v>595</v>
       </c>
-      <c r="J46" s="43">
+      <c r="J46" s="41">
         <v>1399</v>
       </c>
-      <c r="K46" s="43">
+      <c r="K46" s="41">
         <v>6.2239999999999997E-2</v>
       </c>
-      <c r="L46" s="43">
+      <c r="L46" s="41">
         <v>100</v>
       </c>
-      <c r="M46" s="43">
+      <c r="M46" s="41">
         <v>1399</v>
       </c>
-      <c r="N46" s="52">
+      <c r="N46" s="50">
         <v>1.4</v>
       </c>
-      <c r="O46" s="43">
+      <c r="O46" s="41">
         <f>Table4[[#This Row],[IntDen]]/$J$52</f>
         <v>0.12626353790613717</v>
       </c>
@@ -12820,46 +13409,46 @@
       <c r="A47" t="s">
         <v>143</v>
       </c>
-      <c r="B47" s="43">
+      <c r="B47" s="41">
         <v>22500</v>
       </c>
-      <c r="C47" s="43">
+      <c r="C47" s="41">
         <v>7.0330000000000004E-2</v>
       </c>
-      <c r="D47" s="43">
+      <c r="D47" s="41">
         <v>1.2080000000000001E-3</v>
       </c>
-      <c r="E47" s="43">
+      <c r="E47" s="41">
         <v>7.1220000000000006E-2</v>
       </c>
-      <c r="F47" s="43">
+      <c r="F47" s="41">
         <v>6.7180000000000004E-2</v>
       </c>
-      <c r="G47" s="43">
+      <c r="G47" s="41">
         <v>7.3959999999999998E-2</v>
       </c>
-      <c r="H47" s="43">
+      <c r="H47" s="41">
         <v>595</v>
       </c>
-      <c r="I47" s="43">
+      <c r="I47" s="41">
         <v>595</v>
       </c>
-      <c r="J47" s="43">
+      <c r="J47" s="41">
         <v>1583</v>
       </c>
-      <c r="K47" s="43">
+      <c r="K47" s="41">
         <v>7.041E-2</v>
       </c>
-      <c r="L47" s="43">
+      <c r="L47" s="41">
         <v>100</v>
       </c>
-      <c r="M47" s="43">
+      <c r="M47" s="41">
         <v>1583</v>
       </c>
-      <c r="N47" s="52">
+      <c r="N47" s="50">
         <v>1.6</v>
       </c>
-      <c r="O47" s="43">
+      <c r="O47" s="41">
         <f>Table4[[#This Row],[IntDen]]/$J$52</f>
         <v>0.14287003610108304</v>
       </c>
@@ -12868,46 +13457,46 @@
       <c r="A48" t="s">
         <v>145</v>
       </c>
-      <c r="B48" s="43">
+      <c r="B48" s="41">
         <v>22500</v>
       </c>
-      <c r="C48" s="43">
+      <c r="C48" s="41">
         <v>8.659E-2</v>
       </c>
-      <c r="D48" s="43">
+      <c r="D48" s="41">
         <v>1.459E-3</v>
       </c>
-      <c r="E48" s="43">
+      <c r="E48" s="41">
         <v>8.7160000000000001E-2</v>
       </c>
-      <c r="F48" s="43">
+      <c r="F48" s="41">
         <v>8.2860000000000003E-2</v>
       </c>
-      <c r="G48" s="43">
+      <c r="G48" s="41">
         <v>9.0749999999999997E-2</v>
       </c>
-      <c r="H48" s="43">
+      <c r="H48" s="41">
         <v>595</v>
       </c>
-      <c r="I48" s="43">
+      <c r="I48" s="41">
         <v>595</v>
       </c>
-      <c r="J48" s="43">
+      <c r="J48" s="41">
         <v>1948</v>
       </c>
-      <c r="K48" s="43">
+      <c r="K48" s="41">
         <v>8.6709999999999995E-2</v>
       </c>
-      <c r="L48" s="43">
+      <c r="L48" s="41">
         <v>100</v>
       </c>
-      <c r="M48" s="43">
+      <c r="M48" s="41">
         <v>1948</v>
       </c>
-      <c r="N48" s="52">
+      <c r="N48" s="50">
         <v>2</v>
       </c>
-      <c r="O48" s="43">
+      <c r="O48" s="41">
         <f>Table4[[#This Row],[IntDen]]/$J$52</f>
         <v>0.17581227436823105</v>
       </c>
@@ -12916,46 +13505,46 @@
       <c r="A49" t="s">
         <v>144</v>
       </c>
-      <c r="B49" s="43">
+      <c r="B49" s="41">
         <v>22500</v>
       </c>
-      <c r="C49" s="43">
+      <c r="C49" s="41">
         <v>1.374E-2</v>
       </c>
-      <c r="D49" s="43">
+      <c r="D49" s="41">
         <v>4.6670000000000001E-4</v>
       </c>
-      <c r="E49" s="43">
+      <c r="E49" s="41">
         <v>1.367E-2</v>
       </c>
-      <c r="F49" s="43">
+      <c r="F49" s="41">
         <v>1.244E-2</v>
       </c>
-      <c r="G49" s="43">
+      <c r="G49" s="41">
         <v>1.5890000000000001E-2</v>
       </c>
-      <c r="H49" s="43">
+      <c r="H49" s="41">
         <v>595</v>
       </c>
-      <c r="I49" s="43">
+      <c r="I49" s="41">
         <v>595</v>
       </c>
-      <c r="J49" s="43">
+      <c r="J49" s="41">
         <v>309.10000000000002</v>
       </c>
-      <c r="K49" s="43">
+      <c r="K49" s="41">
         <v>1.37E-2</v>
       </c>
-      <c r="L49" s="43">
+      <c r="L49" s="41">
         <v>100</v>
       </c>
-      <c r="M49" s="43">
+      <c r="M49" s="41">
         <v>309.10000000000002</v>
       </c>
-      <c r="N49" s="52">
+      <c r="N49" s="50">
         <v>0.2</v>
       </c>
-      <c r="O49" s="43">
+      <c r="O49" s="41">
         <f>Table4[[#This Row],[IntDen]]/$J$52</f>
         <v>2.7897111913357402E-2</v>
       </c>
@@ -12964,46 +13553,46 @@
       <c r="A50" t="s">
         <v>138</v>
       </c>
-      <c r="B50" s="43">
+      <c r="B50" s="41">
         <v>22500</v>
       </c>
-      <c r="C50" s="43">
+      <c r="C50" s="41">
         <v>2.1559999999999999E-2</v>
       </c>
-      <c r="D50" s="43">
+      <c r="D50" s="41">
         <v>5.4129999999999998E-4</v>
       </c>
-      <c r="E50" s="43">
+      <c r="E50" s="41">
         <v>2.163E-2</v>
       </c>
-      <c r="F50" s="43">
+      <c r="F50" s="41">
         <v>2.0039999999999999E-2</v>
       </c>
-      <c r="G50" s="43">
+      <c r="G50" s="41">
         <v>2.3720000000000001E-2</v>
       </c>
-      <c r="H50" s="43">
+      <c r="H50" s="41">
         <v>595</v>
       </c>
-      <c r="I50" s="43">
+      <c r="I50" s="41">
         <v>595</v>
       </c>
-      <c r="J50" s="43">
+      <c r="J50" s="41">
         <v>485.2</v>
       </c>
-      <c r="K50" s="43">
+      <c r="K50" s="41">
         <v>2.154E-2</v>
       </c>
-      <c r="L50" s="43">
+      <c r="L50" s="41">
         <v>100</v>
       </c>
-      <c r="M50" s="43">
+      <c r="M50" s="41">
         <v>485.2</v>
       </c>
-      <c r="N50" s="52">
+      <c r="N50" s="50">
         <v>0.4</v>
       </c>
-      <c r="O50" s="43">
+      <c r="O50" s="41">
         <f>Table4[[#This Row],[IntDen]]/$J$52</f>
         <v>4.3790613718411552E-2</v>
       </c>
@@ -13012,46 +13601,46 @@
       <c r="A51" t="s">
         <v>140</v>
       </c>
-      <c r="B51" s="43">
+      <c r="B51" s="41">
         <v>22500</v>
       </c>
-      <c r="C51" s="43">
+      <c r="C51" s="41">
         <v>2.964E-2</v>
       </c>
-      <c r="D51" s="43">
+      <c r="D51" s="41">
         <v>6.3020000000000003E-4</v>
       </c>
-      <c r="E51" s="43">
+      <c r="E51" s="41">
         <v>2.9850000000000002E-2</v>
       </c>
-      <c r="F51" s="43">
+      <c r="F51" s="41">
         <v>2.7879999999999999E-2</v>
       </c>
-      <c r="G51" s="43">
+      <c r="G51" s="41">
         <v>3.2030000000000003E-2</v>
       </c>
-      <c r="H51" s="43">
+      <c r="H51" s="41">
         <v>595</v>
       </c>
-      <c r="I51" s="43">
+      <c r="I51" s="41">
         <v>595</v>
       </c>
-      <c r="J51" s="43">
+      <c r="J51" s="41">
         <v>667</v>
       </c>
-      <c r="K51" s="43">
+      <c r="K51" s="41">
         <v>2.964E-2</v>
       </c>
-      <c r="L51" s="43">
+      <c r="L51" s="41">
         <v>100</v>
       </c>
-      <c r="M51" s="43">
+      <c r="M51" s="41">
         <v>667</v>
       </c>
-      <c r="N51" s="52">
+      <c r="N51" s="50">
         <v>0.6</v>
       </c>
-      <c r="O51" s="43">
+      <c r="O51" s="41">
         <f>Table4[[#This Row],[IntDen]]/$J$52</f>
         <v>6.0198555956678702E-2</v>
       </c>
@@ -13060,46 +13649,46 @@
       <c r="A52" t="s">
         <v>142</v>
       </c>
-      <c r="B52" s="43">
+      <c r="B52" s="41">
         <v>22500</v>
       </c>
-      <c r="C52" s="43">
+      <c r="C52" s="41">
         <v>0.49230000000000002</v>
       </c>
-      <c r="D52" s="43">
+      <c r="D52" s="41">
         <v>7.9070000000000008E-3</v>
       </c>
-      <c r="E52" s="43">
+      <c r="E52" s="41">
         <v>0.498</v>
       </c>
-      <c r="F52" s="43">
+      <c r="F52" s="41">
         <v>0.47199999999999998</v>
       </c>
-      <c r="G52" s="43">
+      <c r="G52" s="41">
         <v>0.5131</v>
       </c>
-      <c r="H52" s="43">
+      <c r="H52" s="41">
         <v>595</v>
       </c>
-      <c r="I52" s="43">
+      <c r="I52" s="41">
         <v>595</v>
       </c>
-      <c r="J52" s="43">
+      <c r="J52" s="41">
         <v>11080</v>
       </c>
-      <c r="K52" s="43">
+      <c r="K52" s="41">
         <v>0.49299999999999999</v>
       </c>
-      <c r="L52" s="43">
+      <c r="L52" s="41">
         <v>100</v>
       </c>
-      <c r="M52" s="43">
+      <c r="M52" s="41">
         <v>11080</v>
       </c>
       <c r="N52" t="s">
         <v>121</v>
       </c>
-      <c r="O52" s="43">
+      <c r="O52" s="41">
         <f>Table4[[#This Row],[IntDen]]/$J$52</f>
         <v>1</v>
       </c>
@@ -13108,46 +13697,46 @@
       <c r="A53" t="s">
         <v>146</v>
       </c>
-      <c r="B53" s="43">
+      <c r="B53" s="41">
         <v>22500</v>
       </c>
-      <c r="C53" s="43">
+      <c r="C53" s="41">
         <v>4.2729999999999999E-3</v>
       </c>
-      <c r="D53" s="43">
+      <c r="D53" s="41">
         <v>4.8220000000000001E-4</v>
       </c>
-      <c r="E53" s="43">
+      <c r="E53" s="41">
         <v>4.0159999999999996E-3</v>
       </c>
-      <c r="F53" s="43">
+      <c r="F53" s="41">
         <v>3.1800000000000001E-3</v>
       </c>
-      <c r="G53" s="43">
+      <c r="G53" s="41">
         <v>6.1729999999999997E-3</v>
       </c>
-      <c r="H53" s="43">
+      <c r="H53" s="41">
         <v>595</v>
       </c>
-      <c r="I53" s="43">
+      <c r="I53" s="41">
         <v>595</v>
       </c>
-      <c r="J53" s="43">
+      <c r="J53" s="41">
         <v>96.15</v>
       </c>
-      <c r="K53" s="43">
+      <c r="K53" s="41">
         <v>4.1809999999999998E-3</v>
       </c>
-      <c r="L53" s="43">
+      <c r="L53" s="41">
         <v>100</v>
       </c>
-      <c r="M53" s="43">
+      <c r="M53" s="41">
         <v>96.15</v>
       </c>
       <c r="N53" t="s">
         <v>111</v>
       </c>
-      <c r="O53" s="43">
+      <c r="O53" s="41">
         <f>Table4[[#This Row],[IntDen]]/$J$52</f>
         <v>8.6777978339350192E-3</v>
       </c>
@@ -13156,46 +13745,46 @@
       <c r="A54" t="s">
         <v>147</v>
       </c>
-      <c r="B54" s="43">
+      <c r="B54" s="41">
         <v>22500</v>
       </c>
-      <c r="C54" s="43">
+      <c r="C54" s="41">
         <v>4.2519999999999997E-3</v>
       </c>
-      <c r="D54" s="43">
+      <c r="D54" s="41">
         <v>3.949E-4</v>
       </c>
-      <c r="E54" s="43">
+      <c r="E54" s="41">
         <v>4.0229999999999997E-3</v>
       </c>
-      <c r="F54" s="43">
+      <c r="F54" s="41">
         <v>3.2650000000000001E-3</v>
       </c>
-      <c r="G54" s="43">
+      <c r="G54" s="41">
         <v>7.267E-3</v>
       </c>
-      <c r="H54" s="43">
+      <c r="H54" s="41">
         <v>595</v>
       </c>
-      <c r="I54" s="43">
+      <c r="I54" s="41">
         <v>595</v>
       </c>
-      <c r="J54" s="43">
+      <c r="J54" s="41">
         <v>95.66</v>
       </c>
-      <c r="K54" s="43">
+      <c r="K54" s="41">
         <v>4.1970000000000002E-3</v>
       </c>
-      <c r="L54" s="43">
+      <c r="L54" s="41">
         <v>100</v>
       </c>
-      <c r="M54" s="43">
+      <c r="M54" s="41">
         <v>95.66</v>
       </c>
       <c r="N54" t="s">
         <v>112</v>
       </c>
-      <c r="O54" s="43">
+      <c r="O54" s="41">
         <f>Table4[[#This Row],[IntDen]]/$J$52</f>
         <v>8.6335740072202155E-3</v>
       </c>
@@ -13218,17 +13807,17 @@
       <c r="A57" t="s">
         <v>148</v>
       </c>
-      <c r="B57" s="48">
+      <c r="B57" s="46">
         <f>AVERAGE(O53,O54)</f>
         <v>8.6556859205776174E-3</v>
       </c>
-      <c r="C57" s="47"/>
-      <c r="D57" s="46">
+      <c r="C57" s="45"/>
+      <c r="D57" s="44">
         <f>1-TRANSMISSION_10X_FFF</f>
         <v>0.99134431407942236</v>
       </c>
-      <c r="E57" s="47">
-        <v>10</v>
+      <c r="E57" s="45">
+        <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="18" x14ac:dyDescent="0.25">
@@ -13238,7 +13827,7 @@
       <c r="C59" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="D59" s="51" t="s">
+      <c r="D59" s="49" t="s">
         <v>150</v>
       </c>
       <c r="E59" s="13" t="s">
@@ -13249,32 +13838,557 @@
       <c r="A60" t="s">
         <v>149</v>
       </c>
-      <c r="B60" s="46">
+      <c r="B60" s="44">
         <f t="array" ref="B60:C60">LINEST(O45:O51,N45:N51)</f>
         <v>8.2348556728069358E-2</v>
       </c>
-      <c r="C60" s="46">
+      <c r="C60" s="44">
         <v>1.1021938350458213E-2</v>
       </c>
-      <c r="D60" s="46">
+      <c r="D60" s="44">
         <f>C60/B60</f>
         <v>0.1338449486960015</v>
       </c>
-      <c r="E60" s="49">
+      <c r="E60" s="47">
         <f>D60 - (E57*TRANSMISSION_10X_FFF/D57)</f>
-        <v>4.6532338963474598E-2</v>
+        <v>2.9069817016969215E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A62" s="43" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A63" s="70" t="s">
+        <v>85</v>
+      </c>
+      <c r="B63" s="71" t="s">
+        <v>86</v>
+      </c>
+      <c r="C63" s="71" t="s">
+        <v>87</v>
+      </c>
+      <c r="D63" s="71" t="s">
+        <v>88</v>
+      </c>
+      <c r="E63" s="71" t="s">
+        <v>94</v>
+      </c>
+      <c r="F63" s="71" t="s">
+        <v>95</v>
+      </c>
+      <c r="G63" s="71" t="s">
+        <v>96</v>
+      </c>
+      <c r="H63" s="71" t="s">
+        <v>97</v>
+      </c>
+      <c r="I63" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="J63" s="72" t="s">
+        <v>136</v>
+      </c>
+      <c r="K63" s="73" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>173</v>
+      </c>
+      <c r="B64" s="41">
+        <v>22500</v>
+      </c>
+      <c r="C64" s="41">
+        <v>8.6559999999999998E-2</v>
+      </c>
+      <c r="D64" s="41">
+        <v>1.469E-3</v>
+      </c>
+      <c r="E64" s="41">
+        <v>1948</v>
+      </c>
+      <c r="F64" s="41">
+        <v>8.6669999999999997E-2</v>
+      </c>
+      <c r="G64" s="41">
+        <v>100</v>
+      </c>
+      <c r="H64" s="41">
+        <v>1948</v>
+      </c>
+      <c r="I64" s="50">
+        <v>0</v>
+      </c>
+      <c r="J64" s="41">
+        <f>Table1[[#This Row],[IntDen]]/E$72</f>
+        <v>0.17581227436823105</v>
+      </c>
+      <c r="K64" s="41">
+        <f>$J$64 - J64</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>177</v>
+      </c>
+      <c r="B65" s="41">
+        <v>22500</v>
+      </c>
+      <c r="C65" s="41">
+        <v>8.566E-2</v>
+      </c>
+      <c r="D65" s="41">
+        <v>1.474E-3</v>
+      </c>
+      <c r="E65" s="41">
+        <v>1927</v>
+      </c>
+      <c r="F65" s="41">
+        <v>8.5760000000000003E-2</v>
+      </c>
+      <c r="G65" s="41">
+        <v>100</v>
+      </c>
+      <c r="H65" s="41">
+        <v>1927</v>
+      </c>
+      <c r="I65" s="50">
+        <v>0.1</v>
+      </c>
+      <c r="J65" s="41">
+        <f>Table1[[#This Row],[IntDen]]/E$72</f>
+        <v>0.17391696750902527</v>
+      </c>
+      <c r="K65" s="41">
+        <f>$J$64 - J65</f>
+        <v>1.8953068592057754E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>175</v>
+      </c>
+      <c r="B66" s="41">
+        <v>22500</v>
+      </c>
+      <c r="C66" s="41">
+        <v>8.3419999999999994E-2</v>
+      </c>
+      <c r="D66" s="41">
+        <v>1.536E-3</v>
+      </c>
+      <c r="E66" s="41">
+        <v>1877</v>
+      </c>
+      <c r="F66" s="41">
+        <v>8.3460000000000006E-2</v>
+      </c>
+      <c r="G66" s="41">
+        <v>100</v>
+      </c>
+      <c r="H66" s="41">
+        <v>1877</v>
+      </c>
+      <c r="I66" s="50">
+        <v>0.2</v>
+      </c>
+      <c r="J66" s="41">
+        <f>Table1[[#This Row],[IntDen]]/E$72</f>
+        <v>0.16940433212996389</v>
+      </c>
+      <c r="K66" s="41">
+        <f>$J$64 - J66</f>
+        <v>6.4079422382671558E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>170</v>
+      </c>
+      <c r="B67" s="41">
+        <v>22500</v>
+      </c>
+      <c r="C67" s="41">
+        <v>8.1280000000000005E-2</v>
+      </c>
+      <c r="D67" s="41">
+        <v>1.6930000000000001E-3</v>
+      </c>
+      <c r="E67" s="41">
+        <v>1829</v>
+      </c>
+      <c r="F67" s="41">
+        <v>8.1280000000000005E-2</v>
+      </c>
+      <c r="G67" s="41">
+        <v>100</v>
+      </c>
+      <c r="H67" s="41">
+        <v>1829</v>
+      </c>
+      <c r="I67" s="50">
+        <v>0.3</v>
+      </c>
+      <c r="J67" s="41">
+        <f>Table1[[#This Row],[IntDen]]/E$72</f>
+        <v>0.16507220216606497</v>
+      </c>
+      <c r="K67" s="41">
+        <f>$J$64 - J67</f>
+        <v>1.0740072202166079E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>176</v>
+      </c>
+      <c r="B68" s="41">
+        <v>22500</v>
+      </c>
+      <c r="C68" s="41">
+        <v>7.689E-2</v>
+      </c>
+      <c r="D68" s="41">
+        <v>2.173E-3</v>
+      </c>
+      <c r="E68" s="41">
+        <v>1730</v>
+      </c>
+      <c r="F68" s="41">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="G68" s="41">
+        <v>100</v>
+      </c>
+      <c r="H68" s="41">
+        <v>1730</v>
+      </c>
+      <c r="I68" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="J68" s="41">
+        <f>Table1[[#This Row],[IntDen]]/E$72</f>
+        <v>0.15613718411552346</v>
+      </c>
+      <c r="K68" s="41">
+        <f>$J$64 - J68</f>
+        <v>1.9675090252707583E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>172</v>
+      </c>
+      <c r="B69" s="41">
+        <v>22500</v>
+      </c>
+      <c r="C69" s="41">
+        <v>7.2470000000000007E-2</v>
+      </c>
+      <c r="D69" s="41">
+        <v>2.7799999999999999E-3</v>
+      </c>
+      <c r="E69" s="41">
+        <v>1630</v>
+      </c>
+      <c r="F69" s="41">
+        <v>7.2819999999999996E-2</v>
+      </c>
+      <c r="G69" s="41">
+        <v>100</v>
+      </c>
+      <c r="H69" s="41">
+        <v>1630</v>
+      </c>
+      <c r="I69" s="50">
+        <v>0.7</v>
+      </c>
+      <c r="J69" s="41">
+        <f>Table1[[#This Row],[IntDen]]/E$72</f>
+        <v>0.14711191335740073</v>
+      </c>
+      <c r="K69" s="41">
+        <f>$J$64 - J69</f>
+        <v>2.8700361010830316E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>167</v>
+      </c>
+      <c r="B70" s="41">
+        <v>22500</v>
+      </c>
+      <c r="C70" s="41">
+        <v>6.5909999999999996E-2</v>
+      </c>
+      <c r="D70" s="41">
+        <v>3.81E-3</v>
+      </c>
+      <c r="E70" s="41">
+        <v>1483</v>
+      </c>
+      <c r="F70" s="41">
+        <v>6.658E-2</v>
+      </c>
+      <c r="G70" s="41">
+        <v>100</v>
+      </c>
+      <c r="H70" s="41">
+        <v>1483</v>
+      </c>
+      <c r="I70" s="50">
+        <v>1</v>
+      </c>
+      <c r="J70" s="41">
+        <f>Table1[[#This Row],[IntDen]]/E$72</f>
+        <v>0.13384476534296028</v>
+      </c>
+      <c r="K70" s="41">
+        <f>$J$64 - J70</f>
+        <v>4.1967509025270772E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>168</v>
+      </c>
+      <c r="B71" s="41">
+        <v>22500</v>
+      </c>
+      <c r="C71" s="41">
+        <v>6.4320000000000002E-2</v>
+      </c>
+      <c r="D71" s="41">
+        <v>3.5010000000000002E-3</v>
+      </c>
+      <c r="E71" s="41">
+        <v>1447</v>
+      </c>
+      <c r="F71" s="41">
+        <v>6.4380000000000007E-2</v>
+      </c>
+      <c r="G71" s="41">
+        <v>100</v>
+      </c>
+      <c r="H71" s="41">
+        <v>1447</v>
+      </c>
+      <c r="I71" s="50">
+        <v>2</v>
+      </c>
+      <c r="J71" s="41">
+        <f>Table1[[#This Row],[IntDen]]/E$72</f>
+        <v>0.1305956678700361</v>
+      </c>
+      <c r="K71" s="41">
+        <f>$J$64 - J71</f>
+        <v>4.521660649819495E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>171</v>
+      </c>
+      <c r="B72" s="41">
+        <v>22500</v>
+      </c>
+      <c r="C72" s="41">
+        <v>0.49249999999999999</v>
+      </c>
+      <c r="D72" s="41">
+        <v>7.9299999999999995E-3</v>
+      </c>
+      <c r="E72" s="41">
+        <v>11080</v>
+      </c>
+      <c r="F72" s="41">
+        <v>0.49330000000000002</v>
+      </c>
+      <c r="G72" s="41">
+        <v>100</v>
+      </c>
+      <c r="H72" s="41">
+        <v>11080</v>
+      </c>
+      <c r="I72" t="s">
+        <v>121</v>
+      </c>
+      <c r="J72" s="41">
+        <f>Table1[[#This Row],[IntDen]]/E$72</f>
+        <v>1</v>
+      </c>
+      <c r="K72" s="41">
+        <f>$J$64 - J72</f>
+        <v>-0.8241877256317689</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>174</v>
+      </c>
+      <c r="B73" s="41">
+        <v>22500</v>
+      </c>
+      <c r="C73" s="41">
+        <v>4.3579999999999999E-3</v>
+      </c>
+      <c r="D73" s="41">
+        <v>4.84E-4</v>
+      </c>
+      <c r="E73" s="41">
+        <v>98.06</v>
+      </c>
+      <c r="F73" s="41">
+        <v>4.2649999999999997E-3</v>
+      </c>
+      <c r="G73" s="41">
+        <v>100</v>
+      </c>
+      <c r="H73" s="41">
+        <v>98.06</v>
+      </c>
+      <c r="I73" t="s">
+        <v>111</v>
+      </c>
+      <c r="J73" s="41">
+        <f>Table1[[#This Row],[IntDen]]/E$72</f>
+        <v>8.850180505415162E-3</v>
+      </c>
+      <c r="K73" s="41">
+        <f>$J$64 - J73</f>
+        <v>0.16696209386281588</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>169</v>
+      </c>
+      <c r="B74" s="41">
+        <v>22500</v>
+      </c>
+      <c r="C74" s="41">
+        <v>4.2719999999999998E-3</v>
+      </c>
+      <c r="D74" s="41">
+        <v>3.971E-4</v>
+      </c>
+      <c r="E74" s="41">
+        <v>96.13</v>
+      </c>
+      <c r="F74" s="41">
+        <v>4.2139999999999999E-3</v>
+      </c>
+      <c r="G74" s="41">
+        <v>100</v>
+      </c>
+      <c r="H74" s="41">
+        <v>96.13</v>
+      </c>
+      <c r="I74" t="s">
+        <v>112</v>
+      </c>
+      <c r="J74" s="41">
+        <f>Table1[[#This Row],[IntDen]]/E$72</f>
+        <v>8.6759927797833928E-3</v>
+      </c>
+      <c r="K74" s="41">
+        <f>$J$64 - J74</f>
+        <v>0.16713628158844765</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>148</v>
+      </c>
+      <c r="B77" s="46">
+        <f>AVERAGE(J73:J74)</f>
+        <v>8.7630866425992774E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B79" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="C79" s="38" t="s">
+        <v>159</v>
+      </c>
+      <c r="D79" s="39" t="s">
+        <v>179</v>
+      </c>
+      <c r="E79" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="F79" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="G79" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="H79" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="I79" s="38" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" s="58" t="s">
+        <v>164</v>
+      </c>
+      <c r="B80" s="74">
+        <f t="array" ref="B80:C80">LINEST(K65:K70,I65:I70)</f>
+        <v>4.4549156242129115E-2</v>
+      </c>
+      <c r="C80" s="74">
+        <v>-2.5585593149189713E-3</v>
+      </c>
+      <c r="D80" s="74">
+        <f>C80/B80</f>
+        <v>-5.7432273262661718E-2</v>
+      </c>
+      <c r="E80" s="40">
+        <f>-1*D80</f>
+        <v>5.7432273262661718E-2</v>
+      </c>
+      <c r="F80" s="31">
+        <f>1-2*SQRT(B77) + B77</f>
+        <v>0.82154036748064208</v>
+      </c>
+      <c r="G80" s="40">
+        <f>B80/F80</f>
+        <v>5.4226375240385039E-2</v>
+      </c>
+      <c r="H80" s="37">
+        <f>(SQRT(B77)-B77)/(1-B77)</f>
+        <v>8.5598378949580556E-2</v>
+      </c>
+      <c r="I80" s="40">
+        <f>0.5*E60-H80*E80</f>
+        <v>9.6187990178114267E-3</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="Q26:AC35">
-    <sortCondition descending="1" ref="Q26"/>
+  <sortState ref="L26:X35">
+    <sortCondition descending="1" ref="L26"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="3">
-    <tablePart r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="4">
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
@@ -13283,8 +14397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L83"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="F61" sqref="F61:G61"/>
+    <sheetView topLeftCell="A37" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -13295,14 +14409,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
       <c r="H1" s="27"/>
       <c r="I1" s="27"/>
       <c r="J1" s="27"/>
@@ -13468,28 +14582,28 @@
       <c r="B24" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="C24" s="57">
+      <c r="C24" s="55">
         <f>C22/C9</f>
         <v>9.540636042402826E-3</v>
       </c>
-      <c r="D24" s="57">
+      <c r="D24" s="55">
         <f>D22/C9</f>
         <v>1.0291519434628974E-2</v>
       </c>
-      <c r="E24" s="48">
+      <c r="E24" s="46">
         <f>AVERAGE(C24:D24)</f>
         <v>9.9160777385159E-3</v>
       </c>
     </row>
     <row r="26" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="41" t="s">
+      <c r="B26" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="68"/>
       <c r="H26" s="27"/>
       <c r="I26" s="27"/>
       <c r="J26" s="27"/>
@@ -13809,96 +14923,96 @@
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B38" s="59"/>
-      <c r="C38" s="60"/>
-      <c r="D38" s="60"/>
-      <c r="E38" s="60"/>
-      <c r="G38" s="54"/>
-      <c r="H38" s="54"/>
-      <c r="I38" s="54"/>
-      <c r="J38" s="54"/>
+      <c r="B38" s="57"/>
+      <c r="C38" s="58"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="58"/>
+      <c r="G38" s="52"/>
+      <c r="H38" s="52"/>
+      <c r="I38" s="52"/>
+      <c r="J38" s="52"/>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B39" s="59"/>
-      <c r="C39" s="60"/>
-      <c r="D39" s="60"/>
-      <c r="E39" s="60"/>
+      <c r="B39" s="57"/>
+      <c r="C39" s="58"/>
+      <c r="D39" s="58"/>
+      <c r="E39" s="58"/>
       <c r="F39" t="s">
         <v>116</v>
       </c>
-      <c r="G39" s="54" t="s">
+      <c r="G39" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="H39" s="54"/>
-      <c r="I39" s="54"/>
-      <c r="J39" s="54"/>
+      <c r="H39" s="52"/>
+      <c r="I39" s="52"/>
+      <c r="J39" s="52"/>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B40" s="59"/>
-      <c r="C40" s="60"/>
-      <c r="D40" s="60"/>
-      <c r="E40" s="60" t="s">
+      <c r="B40" s="57"/>
+      <c r="C40" s="58"/>
+      <c r="D40" s="58"/>
+      <c r="E40" s="58" t="s">
         <v>160</v>
       </c>
-      <c r="F40" s="56">
+      <c r="F40" s="54">
         <f t="array" ref="F40:G40">LINEST(H30:H37,B30:B37)</f>
         <v>7.6770601579199932E-2</v>
       </c>
-      <c r="G40" s="61">
+      <c r="G40" s="59">
         <v>1.7482986520089019E-2</v>
       </c>
-      <c r="H40" s="54"/>
-      <c r="I40" s="54"/>
-      <c r="J40" s="54"/>
+      <c r="H40" s="52"/>
+      <c r="I40" s="52"/>
+      <c r="J40" s="52"/>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B41" s="59"/>
-      <c r="C41" s="60"/>
-      <c r="D41" s="60"/>
-      <c r="E41" s="60" t="s">
+      <c r="B41" s="57"/>
+      <c r="C41" s="58"/>
+      <c r="D41" s="58"/>
+      <c r="E41" s="58" t="s">
         <v>161</v>
       </c>
-      <c r="F41" s="56">
+      <c r="F41" s="54">
         <f t="array" ref="F41:G41">LINEST(H30:H36,B30:B36)</f>
         <v>8.2145567183111362E-2</v>
       </c>
-      <c r="G41" s="61">
+      <c r="G41" s="59">
         <v>1.2996058711606404E-2</v>
       </c>
-      <c r="H41" s="54"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="54"/>
+      <c r="H41" s="52"/>
+      <c r="I41" s="52"/>
+      <c r="J41" s="52"/>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B42" s="59"/>
-      <c r="C42" s="60"/>
-      <c r="D42" s="60"/>
-      <c r="E42" s="60"/>
-      <c r="H42" s="54"/>
-      <c r="I42" s="54"/>
-      <c r="J42" s="54"/>
+      <c r="B42" s="57"/>
+      <c r="C42" s="58"/>
+      <c r="D42" s="58"/>
+      <c r="E42" s="58"/>
+      <c r="H42" s="52"/>
+      <c r="I42" s="52"/>
+      <c r="J42" s="52"/>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B43" s="59"/>
-      <c r="C43" s="60"/>
-      <c r="D43" s="60"/>
-      <c r="E43" s="62" t="s">
+      <c r="B43" s="57"/>
+      <c r="C43" s="58"/>
+      <c r="D43" s="58"/>
+      <c r="E43" s="60" t="s">
         <v>158</v>
       </c>
-      <c r="G43" s="54"/>
-      <c r="H43" s="54"/>
-      <c r="I43" s="54"/>
-      <c r="J43" s="54"/>
+      <c r="G43" s="52"/>
+      <c r="H43" s="52"/>
+      <c r="I43" s="52"/>
+      <c r="J43" s="52"/>
     </row>
     <row r="45" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="41" t="s">
+      <c r="B45" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="C45" s="41"/>
-      <c r="D45" s="41"/>
-      <c r="E45" s="41"/>
-      <c r="F45" s="41"/>
-      <c r="G45" s="41"/>
+      <c r="C45" s="68"/>
+      <c r="D45" s="68"/>
+      <c r="E45" s="68"/>
+      <c r="F45" s="68"/>
+      <c r="G45" s="68"/>
       <c r="H45" s="27"/>
       <c r="I45" s="27"/>
       <c r="J45" s="27"/>
@@ -13927,10 +15041,10 @@
       <c r="G48" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="H48" s="63" t="s">
+      <c r="H48" s="61" t="s">
         <v>162</v>
       </c>
-      <c r="I48" s="63" t="s">
+      <c r="I48" s="61" t="s">
         <v>163</v>
       </c>
       <c r="J48" s="11" t="s">
@@ -13956,15 +15070,15 @@
         <f>F49/$C$9</f>
         <v>0.1775618374558304</v>
       </c>
-      <c r="H49" s="68">
+      <c r="H49" s="66">
         <f>$G$49-G49</f>
         <v>0</v>
       </c>
-      <c r="I49" s="63">
+      <c r="I49" s="61">
         <f>F$60*B49+G$60</f>
         <v>-2.765736708028585E-3</v>
       </c>
-      <c r="J49" s="69">
+      <c r="J49" s="67">
         <f>H49-I49</f>
         <v>2.765736708028585E-3</v>
       </c>
@@ -13988,15 +15102,15 @@
         <f>F50/$C$9</f>
         <v>0.17623674911660778</v>
       </c>
-      <c r="H50" s="68">
+      <c r="H50" s="66">
         <f t="shared" ref="H50:H57" si="5">$G$49-G50</f>
         <v>1.3250883392226243E-3</v>
       </c>
-      <c r="I50" s="63">
+      <c r="I50" s="61">
         <f t="shared" ref="I50:I56" si="6">F$60*B50+G$60</f>
         <v>1.4945763826115684E-3</v>
       </c>
-      <c r="J50" s="69">
+      <c r="J50" s="67">
         <f t="shared" ref="J50:J57" si="7">H50-I50</f>
         <v>-1.694880433889441E-4</v>
       </c>
@@ -14020,15 +15134,15 @@
         <f t="shared" ref="G51:G57" si="9">F51/$C$9</f>
         <v>0.17159893992932862</v>
       </c>
-      <c r="H51" s="68">
+      <c r="H51" s="66">
         <f t="shared" si="5"/>
         <v>5.9628975265017814E-3</v>
       </c>
-      <c r="I51" s="63">
+      <c r="I51" s="61">
         <f t="shared" si="6"/>
         <v>5.7548894732517217E-3</v>
       </c>
-      <c r="J51" s="69">
+      <c r="J51" s="67">
         <f t="shared" si="7"/>
         <v>2.0800805325005972E-4</v>
       </c>
@@ -14052,15 +15166,15 @@
         <f t="shared" si="9"/>
         <v>0.16762367491166077</v>
       </c>
-      <c r="H52" s="68">
+      <c r="H52" s="66">
         <f t="shared" si="5"/>
         <v>9.9381625441696264E-3</v>
       </c>
-      <c r="I52" s="63">
+      <c r="I52" s="61">
         <f t="shared" si="6"/>
         <v>1.0015202563891875E-2</v>
       </c>
-      <c r="J52" s="69">
+      <c r="J52" s="67">
         <f t="shared" si="7"/>
         <v>-7.7040019722248582E-5</v>
       </c>
@@ -14084,15 +15198,15 @@
         <f t="shared" si="9"/>
         <v>0.15901060070671377</v>
       </c>
-      <c r="H53" s="68">
+      <c r="H53" s="66">
         <f t="shared" si="5"/>
         <v>1.8551236749116629E-2</v>
       </c>
-      <c r="I53" s="63">
+      <c r="I53" s="61">
         <f t="shared" si="6"/>
         <v>1.8535828745172182E-2</v>
       </c>
-      <c r="J53" s="69">
+      <c r="J53" s="67">
         <f t="shared" si="7"/>
         <v>1.5408003944446941E-5</v>
       </c>
@@ -14116,15 +15230,15 @@
         <f t="shared" si="9"/>
         <v>0.15039752650176677</v>
       </c>
-      <c r="H54" s="68">
+      <c r="H54" s="66">
         <f t="shared" si="5"/>
         <v>2.7164310954063631E-2</v>
       </c>
-      <c r="I54" s="63">
+      <c r="I54" s="61">
         <f t="shared" si="6"/>
         <v>2.7056454926452485E-2</v>
       </c>
-      <c r="J54" s="69">
+      <c r="J54" s="67">
         <f t="shared" si="7"/>
         <v>1.0785602761114593E-4</v>
       </c>
@@ -14148,15 +15262,15 @@
         <f t="shared" si="9"/>
         <v>0.13780918727915192</v>
       </c>
-      <c r="H55" s="68">
+      <c r="H55" s="66">
         <f t="shared" si="5"/>
         <v>3.9752650176678478E-2</v>
       </c>
-      <c r="I55" s="63">
+      <c r="I55" s="61">
         <f t="shared" si="6"/>
         <v>3.9837394198372948E-2</v>
       </c>
-      <c r="J55" s="69">
+      <c r="J55" s="67">
         <f t="shared" si="7"/>
         <v>-8.4744021694470317E-5</v>
       </c>
@@ -14180,15 +15294,15 @@
         <f t="shared" si="9"/>
         <v>0.13284010600706714</v>
       </c>
-      <c r="H56" s="68">
+      <c r="H56" s="66">
         <f t="shared" si="5"/>
         <v>4.4721731448763263E-2</v>
       </c>
-      <c r="I56" s="63">
+      <c r="I56" s="61">
         <f t="shared" si="6"/>
         <v>8.2440525104774481E-2</v>
       </c>
-      <c r="J56" s="69">
+      <c r="J56" s="67">
         <f t="shared" si="7"/>
         <v>-3.7718793656011218E-2</v>
       </c>
@@ -14210,15 +15324,15 @@
         <f t="shared" si="9"/>
         <v>0.13250883392226148</v>
       </c>
-      <c r="H57" s="68">
+      <c r="H57" s="66">
         <f t="shared" si="5"/>
         <v>4.5053003533568919E-2</v>
       </c>
-      <c r="I57" s="63">
+      <c r="I57" s="61">
         <f>F$60*B57+G$60</f>
         <v>0.12504365601117601</v>
       </c>
-      <c r="J57" s="69">
+      <c r="J57" s="67">
         <f t="shared" si="7"/>
         <v>-7.9990652477607088E-2</v>
       </c>
@@ -14232,14 +15346,14 @@
       </c>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E60" s="60" t="s">
+      <c r="E60" s="58" t="s">
         <v>164</v>
       </c>
-      <c r="F60" s="46">
+      <c r="F60" s="44">
         <f t="array" ref="F60:G60">+LINEST(H50:H55,B50:B55)</f>
         <v>4.2603130906401533E-2</v>
       </c>
-      <c r="G60" s="46">
+      <c r="G60" s="44">
         <v>-2.765736708028585E-3</v>
       </c>
     </row>
@@ -14253,14 +15367,14 @@
       </c>
     </row>
     <row r="63" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="42" t="s">
+      <c r="B63" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="C63" s="42"/>
-      <c r="D63" s="42"/>
-      <c r="E63" s="42"/>
-      <c r="F63" s="42"/>
-      <c r="G63" s="42"/>
+      <c r="C63" s="69"/>
+      <c r="D63" s="69"/>
+      <c r="E63" s="69"/>
+      <c r="F63" s="69"/>
+      <c r="G63" s="69"/>
       <c r="H63" s="28"/>
       <c r="I63" s="28"/>
       <c r="J63" s="28"/>
@@ -14345,9 +15459,9 @@
       <c r="G69" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="H69" s="55"/>
-      <c r="I69" s="55"/>
-      <c r="J69" s="55"/>
+      <c r="H69" s="53"/>
+      <c r="I69" s="53"/>
+      <c r="J69" s="53"/>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B70" s="22">
@@ -14468,9 +15582,9 @@
       <c r="G78" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="H78" s="55"/>
-      <c r="I78" s="55"/>
-      <c r="J78" s="55"/>
+      <c r="H78" s="53"/>
+      <c r="I78" s="53"/>
+      <c r="J78" s="53"/>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B79" s="22">
@@ -14554,8 +15668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L58"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J48" sqref="J48"/>
+    <sheetView topLeftCell="B31" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -14566,14 +15680,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
       <c r="H1" s="27"/>
       <c r="I1" s="27"/>
       <c r="J1" s="27"/>
@@ -14739,28 +15853,28 @@
       <c r="B24" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="57">
+      <c r="C24" s="55">
         <f>C22/C9</f>
         <v>1.1408286325617583E-2</v>
       </c>
-      <c r="D24" s="57">
+      <c r="D24" s="55">
         <f>D22/C9</f>
         <v>1.2157167866173895E-2</v>
       </c>
-      <c r="E24" s="48">
+      <c r="E24" s="46">
         <f>AVERAGE(C24:D24)</f>
         <v>1.1782727095895739E-2</v>
       </c>
     </row>
     <row r="26" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="41" t="s">
+      <c r="B26" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="68"/>
       <c r="H26" s="27"/>
       <c r="I26" s="27"/>
       <c r="J26" s="27"/>
@@ -15064,83 +16178,83 @@
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B38" s="59"/>
-      <c r="C38" s="60"/>
-      <c r="D38" s="60"/>
-      <c r="E38" s="60"/>
-      <c r="H38" s="54"/>
-      <c r="I38" s="54"/>
-      <c r="J38" s="54"/>
+      <c r="B38" s="57"/>
+      <c r="C38" s="58"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="58"/>
+      <c r="H38" s="52"/>
+      <c r="I38" s="52"/>
+      <c r="J38" s="52"/>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B39" s="59"/>
-      <c r="C39" s="60"/>
-      <c r="D39" s="60"/>
-      <c r="E39" s="60"/>
+      <c r="B39" s="57"/>
+      <c r="C39" s="58"/>
+      <c r="D39" s="58"/>
+      <c r="E39" s="58"/>
       <c r="F39" t="s">
         <v>116</v>
       </c>
       <c r="G39" t="s">
         <v>117</v>
       </c>
-      <c r="H39" s="54"/>
-      <c r="I39" s="54"/>
-      <c r="J39" s="54"/>
+      <c r="H39" s="52"/>
+      <c r="I39" s="52"/>
+      <c r="J39" s="52"/>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B40" s="59"/>
-      <c r="C40" s="60"/>
-      <c r="D40" s="60"/>
-      <c r="E40" s="60" t="s">
+      <c r="B40" s="57"/>
+      <c r="C40" s="58"/>
+      <c r="D40" s="58"/>
+      <c r="E40" s="58" t="s">
         <v>160</v>
       </c>
-      <c r="F40" s="46">
+      <c r="F40" s="44">
         <f t="array" ref="F40:G40">LINEST(H30:H37,B30:B37)</f>
         <v>7.6775666933223838E-2</v>
       </c>
-      <c r="G40" s="46">
+      <c r="G40" s="44">
         <v>2.0497525340941E-2</v>
       </c>
-      <c r="H40" s="54"/>
-      <c r="I40" s="54"/>
-      <c r="J40" s="54"/>
+      <c r="H40" s="52"/>
+      <c r="I40" s="52"/>
+      <c r="J40" s="52"/>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B41" s="59"/>
-      <c r="C41" s="60"/>
-      <c r="D41" s="60"/>
-      <c r="E41" s="60" t="s">
+      <c r="B41" s="57"/>
+      <c r="C41" s="58"/>
+      <c r="D41" s="58"/>
+      <c r="E41" s="58" t="s">
         <v>161</v>
       </c>
-      <c r="F41" s="46">
+      <c r="F41" s="44">
         <f t="array" ref="F41:G41">LINEST(H30:H36,B30:B36)</f>
         <v>8.2294674786407923E-2</v>
       </c>
-      <c r="G41" s="46">
+      <c r="G41" s="44">
         <v>1.5890353567848195E-2</v>
       </c>
-      <c r="H41" s="54"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="54"/>
+      <c r="H41" s="52"/>
+      <c r="I41" s="52"/>
+      <c r="J41" s="52"/>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B42" s="59"/>
-      <c r="C42" s="60"/>
-      <c r="D42" s="60"/>
-      <c r="E42" s="60"/>
-      <c r="H42" s="54"/>
-      <c r="I42" s="54"/>
-      <c r="J42" s="54"/>
+      <c r="B42" s="57"/>
+      <c r="C42" s="58"/>
+      <c r="D42" s="58"/>
+      <c r="E42" s="58"/>
+      <c r="H42" s="52"/>
+      <c r="I42" s="52"/>
+      <c r="J42" s="52"/>
     </row>
     <row r="44" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="41" t="s">
+      <c r="B44" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="C44" s="41"/>
-      <c r="D44" s="41"/>
-      <c r="E44" s="41"/>
-      <c r="F44" s="41"/>
-      <c r="G44" s="41"/>
+      <c r="C44" s="68"/>
+      <c r="D44" s="68"/>
+      <c r="E44" s="68"/>
+      <c r="F44" s="68"/>
+      <c r="G44" s="68"/>
       <c r="H44" s="27"/>
       <c r="I44" s="27"/>
       <c r="J44" s="27"/>
@@ -15169,10 +16283,10 @@
       <c r="G47" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="H47" s="63" t="s">
+      <c r="H47" s="61" t="s">
         <v>162</v>
       </c>
-      <c r="I47" s="63" t="s">
+      <c r="I47" s="61" t="s">
         <v>163</v>
       </c>
       <c r="J47" s="11" t="s">
@@ -15195,15 +16309,15 @@
         <v>0.309</v>
       </c>
       <c r="G48" s="33">
-        <f>F48/$C$9</f>
+        <f t="shared" ref="G48:G55" si="5">F48/$C$9</f>
         <v>0.18031511379109122</v>
       </c>
-      <c r="H48" s="67">
+      <c r="H48" s="65">
         <f>$H$36-G48</f>
         <v>0</v>
       </c>
       <c r="I48" s="11">
-        <f>$F$58*B48+$G$58</f>
+        <f t="shared" ref="I48:I55" si="6">$F$58*B48+$G$58</f>
         <v>-3.0873551883399929E-3</v>
       </c>
       <c r="J48" s="32">
@@ -15227,19 +16341,19 @@
         <v>0.307</v>
       </c>
       <c r="G49" s="33">
-        <f>F49/$C$9</f>
+        <f t="shared" si="5"/>
         <v>0.17914802567593854</v>
       </c>
-      <c r="H49" s="67">
+      <c r="H49" s="65">
         <f>$H$36-G49</f>
         <v>1.1670881151526757E-3</v>
       </c>
       <c r="I49" s="11">
-        <f>$F$58*B49+$G$58</f>
+        <f t="shared" si="6"/>
         <v>1.075485268905229E-3</v>
       </c>
       <c r="J49" s="32">
-        <f t="shared" ref="J49:J55" si="5">H49-I49</f>
+        <f t="shared" ref="J49:J55" si="7">H49-I49</f>
         <v>9.1602846247446773E-5</v>
       </c>
     </row>
@@ -15255,23 +16369,23 @@
       </c>
       <c r="E50" s="17"/>
       <c r="F50" s="8">
-        <f t="shared" ref="F50:F55" si="6">AVERAGE(C50:E50)</f>
+        <f t="shared" ref="F50:F55" si="8">AVERAGE(C50:E50)</f>
         <v>0.3</v>
       </c>
       <c r="G50" s="33">
-        <f>F50/$C$9</f>
+        <f t="shared" si="5"/>
         <v>0.17506321727290411</v>
       </c>
-      <c r="H50" s="67">
-        <f t="shared" ref="H50:H55" si="7">$H$36-G50</f>
+      <c r="H50" s="65">
+        <f t="shared" ref="H50:H55" si="9">$H$36-G50</f>
         <v>5.2518965181871102E-3</v>
       </c>
       <c r="I50" s="11">
-        <f>$F$58*B50+$G$58</f>
+        <f t="shared" si="6"/>
         <v>5.2383257261504508E-3</v>
       </c>
       <c r="J50" s="32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.3570792036659424E-5</v>
       </c>
     </row>
@@ -15287,23 +16401,23 @@
       </c>
       <c r="E51" s="17"/>
       <c r="F51" s="8">
+        <f t="shared" si="8"/>
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="G51" s="33">
+        <f t="shared" si="5"/>
+        <v>0.17097840886986967</v>
+      </c>
+      <c r="H51" s="65">
+        <f t="shared" si="9"/>
+        <v>9.3367049212215447E-3</v>
+      </c>
+      <c r="I51" s="11">
         <f t="shared" si="6"/>
-        <v>0.29299999999999998</v>
-      </c>
-      <c r="G51" s="33">
-        <f>F51/$C$9</f>
-        <v>0.17097840886986967</v>
-      </c>
-      <c r="H51" s="67">
+        <v>9.4011661833956726E-3</v>
+      </c>
+      <c r="J51" s="32">
         <f t="shared" si="7"/>
-        <v>9.3367049212215447E-3</v>
-      </c>
-      <c r="I51" s="11">
-        <f>$F$58*B51+$G$58</f>
-        <v>9.4011661833956726E-3</v>
-      </c>
-      <c r="J51" s="32">
-        <f t="shared" si="5"/>
         <v>-6.4461262174127926E-5</v>
       </c>
     </row>
@@ -15319,23 +16433,23 @@
       </c>
       <c r="E52" s="17"/>
       <c r="F52" s="8">
+        <f t="shared" si="8"/>
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="G52" s="33">
+        <f t="shared" si="5"/>
+        <v>0.16280879206380083</v>
+      </c>
+      <c r="H52" s="65">
+        <f t="shared" si="9"/>
+        <v>1.7506321727290386E-2</v>
+      </c>
+      <c r="I52" s="11">
         <f t="shared" si="6"/>
-        <v>0.27900000000000003</v>
-      </c>
-      <c r="G52" s="33">
-        <f>F52/$C$9</f>
-        <v>0.16280879206380083</v>
-      </c>
-      <c r="H52" s="67">
+        <v>1.7726847097886116E-2</v>
+      </c>
+      <c r="J52" s="32">
         <f t="shared" si="7"/>
-        <v>1.7506321727290386E-2</v>
-      </c>
-      <c r="I52" s="11">
-        <f>$F$58*B52+$G$58</f>
-        <v>1.7726847097886116E-2</v>
-      </c>
-      <c r="J52" s="32">
-        <f t="shared" si="5"/>
         <v>-2.2052537059573038E-4</v>
       </c>
     </row>
@@ -15350,23 +16464,23 @@
         <v>0.26400000000000001</v>
       </c>
       <c r="F53" s="8">
+        <f t="shared" si="8"/>
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="G53" s="33">
+        <f t="shared" si="5"/>
+        <v>0.15405563120015561</v>
+      </c>
+      <c r="H53" s="65">
+        <f t="shared" si="9"/>
+        <v>2.6259482590935607E-2</v>
+      </c>
+      <c r="I53" s="11">
         <f t="shared" si="6"/>
-        <v>0.26400000000000001</v>
-      </c>
-      <c r="G53" s="33">
-        <f>F53/$C$9</f>
-        <v>0.15405563120015561</v>
-      </c>
-      <c r="H53" s="67">
+        <v>2.6052528012376557E-2</v>
+      </c>
+      <c r="J53" s="32">
         <f t="shared" si="7"/>
-        <v>2.6259482590935607E-2</v>
-      </c>
-      <c r="I53" s="11">
-        <f>$F$58*B53+$G$58</f>
-        <v>2.6052528012376557E-2</v>
-      </c>
-      <c r="J53" s="32">
-        <f t="shared" si="5"/>
         <v>2.0695457855905014E-4</v>
       </c>
     </row>
@@ -15382,23 +16496,23 @@
       </c>
       <c r="E54" s="17"/>
       <c r="F54" s="8">
+        <f t="shared" si="8"/>
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="G54" s="33">
+        <f t="shared" si="5"/>
+        <v>0.14180120599105231</v>
+      </c>
+      <c r="H54" s="65">
+        <f t="shared" si="9"/>
+        <v>3.851390780003891E-2</v>
+      </c>
+      <c r="I54" s="11">
         <f t="shared" si="6"/>
-        <v>0.24299999999999999</v>
-      </c>
-      <c r="G54" s="33">
-        <f>F54/$C$9</f>
-        <v>0.14180120599105231</v>
-      </c>
-      <c r="H54" s="67">
+        <v>3.8541049384112222E-2</v>
+      </c>
+      <c r="J54" s="32">
         <f t="shared" si="7"/>
-        <v>3.851390780003891E-2</v>
-      </c>
-      <c r="I54" s="11">
-        <f>$F$58*B54+$G$58</f>
-        <v>3.8541049384112222E-2</v>
-      </c>
-      <c r="J54" s="32">
-        <f t="shared" si="5"/>
         <v>-2.7141584073311908E-5</v>
       </c>
     </row>
@@ -15414,23 +16528,23 @@
       </c>
       <c r="E55" s="17"/>
       <c r="F55" s="8">
+        <f t="shared" si="8"/>
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="G55" s="33">
+        <f t="shared" si="5"/>
+        <v>0.13713285353044155</v>
+      </c>
+      <c r="H55" s="65">
+        <f t="shared" si="9"/>
+        <v>4.3182260260649669E-2</v>
+      </c>
+      <c r="I55" s="11">
         <f t="shared" si="6"/>
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="G55" s="33">
-        <f>F55/$C$9</f>
-        <v>0.13713285353044155</v>
-      </c>
-      <c r="H55" s="67">
+        <v>8.016945395656444E-2</v>
+      </c>
+      <c r="J55" s="32">
         <f t="shared" si="7"/>
-        <v>4.3182260260649669E-2</v>
-      </c>
-      <c r="I55" s="11">
-        <f>$F$58*B55+$G$58</f>
-        <v>8.016945395656444E-2</v>
-      </c>
-      <c r="J55" s="32">
-        <f t="shared" si="5"/>
         <v>-3.6987193695914772E-2</v>
       </c>
     </row>
@@ -15443,14 +16557,14 @@
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E58" s="60" t="s">
+      <c r="E58" s="58" t="s">
         <v>164</v>
       </c>
-      <c r="F58" s="46">
+      <c r="F58" s="44">
         <f t="array" ref="F58:G58">LINEST(H49:H54,B49:B54)</f>
         <v>4.1628404572452218E-2</v>
       </c>
-      <c r="G58" s="46">
+      <c r="G58" s="44">
         <v>-3.0873551883399929E-3</v>
       </c>
     </row>
@@ -15481,14 +16595,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
       <c r="H1" s="27"/>
       <c r="I1" s="27"/>
       <c r="J1" s="27"/>
@@ -15653,28 +16767,28 @@
       <c r="B24" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="57">
+      <c r="C24" s="55">
         <f>C22/C9</f>
         <v>1.0555674747908176E-2</v>
       </c>
-      <c r="D24" s="57">
+      <c r="D24" s="55">
         <f>D22/C9</f>
         <v>1.1413859686762498E-2</v>
       </c>
-      <c r="E24" s="48">
+      <c r="E24" s="46">
         <f>AVERAGE(C24:D24)</f>
         <v>1.0984767217335337E-2</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="41" t="s">
+      <c r="B26" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="68"/>
       <c r="H26" s="27"/>
       <c r="I26" s="27"/>
       <c r="J26" s="27"/>
@@ -15892,38 +17006,38 @@
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E37" s="60" t="s">
+      <c r="E37" s="58" t="s">
         <v>160</v>
       </c>
-      <c r="F37" s="46">
+      <c r="F37" s="44">
         <f t="array" ref="F37:G37">LINEST(H30:H34,B30:B34)</f>
         <v>7.6328106870295884E-2</v>
       </c>
-      <c r="G37" s="46">
+      <c r="G37" s="44">
         <v>1.8448786938074932E-2</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E38" s="60" t="s">
+      <c r="E38" s="58" t="s">
         <v>161</v>
       </c>
-      <c r="F38" s="46">
+      <c r="F38" s="44">
         <f t="array" ref="F38:G38">LINEST(H30:H33,B30:B33)</f>
         <v>8.214055843319952E-2</v>
       </c>
-      <c r="G38" s="46">
+      <c r="G38" s="44">
         <v>1.4573819229472512E-2</v>
       </c>
     </row>
     <row r="41" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="41" t="s">
+      <c r="B41" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="C41" s="41"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="41"/>
-      <c r="G41" s="41"/>
+      <c r="C41" s="68"/>
+      <c r="D41" s="68"/>
+      <c r="E41" s="68"/>
+      <c r="F41" s="68"/>
+      <c r="G41" s="68"/>
       <c r="H41" s="27"/>
       <c r="I41" s="27"/>
       <c r="J41" s="27"/>
@@ -15955,8 +17069,8 @@
       <c r="H44" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="I44" s="53"/>
-      <c r="J44" s="53"/>
+      <c r="I44" s="51"/>
+      <c r="J44" s="51"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45" s="12">
@@ -15983,8 +17097,8 @@
         <f>F45/$C$9</f>
         <v>0.17464063505685479</v>
       </c>
-      <c r="I45" s="54"/>
-      <c r="J45" s="54"/>
+      <c r="I45" s="52"/>
+      <c r="J45" s="52"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B46" s="12">
@@ -16011,8 +17125,8 @@
         <f t="shared" ref="H46:H49" si="7">F46/$C$9</f>
         <v>0.16155331473932633</v>
       </c>
-      <c r="I46" s="54"/>
-      <c r="J46" s="54"/>
+      <c r="I46" s="52"/>
+      <c r="J46" s="52"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B47" s="12">
@@ -16039,8 +17153,8 @@
         <f t="shared" si="7"/>
         <v>0.1396695987985411</v>
       </c>
-      <c r="I47" s="54"/>
-      <c r="J47" s="54"/>
+      <c r="I47" s="52"/>
+      <c r="J47" s="52"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B48" s="12">
@@ -16067,8 +17181,8 @@
         <f t="shared" si="7"/>
         <v>0.13452048916541515</v>
       </c>
-      <c r="I48" s="54"/>
-      <c r="J48" s="54"/>
+      <c r="I48" s="52"/>
+      <c r="J48" s="52"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B49" s="12">
@@ -16095,8 +17209,8 @@
         <f t="shared" si="7"/>
         <v>0.13452048916541515</v>
       </c>
-      <c r="I49" s="54"/>
-      <c r="J49" s="54"/>
+      <c r="I49" s="52"/>
+      <c r="J49" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -16125,14 +17239,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
       <c r="H1" s="27"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -16294,28 +17408,28 @@
       <c r="B24" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="57">
+      <c r="C24" s="55">
         <f>C22/C9</f>
         <v>1.2752275025278058E-2</v>
       </c>
-      <c r="D24" s="57">
+      <c r="D24" s="55">
         <f>D22/C9</f>
         <v>1.3453993933265926E-2</v>
       </c>
-      <c r="E24" s="48">
+      <c r="E24" s="46">
         <f>AVERAGE(C24:D24)</f>
         <v>1.3103134479271993E-2</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="41" t="s">
+      <c r="B26" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="68"/>
       <c r="H26" s="27"/>
     </row>
     <row r="27" spans="2:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -16458,14 +17572,14 @@
       </c>
     </row>
     <row r="36" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="41" t="s">
+      <c r="B36" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="C36" s="41"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="41"/>
+      <c r="C36" s="68"/>
+      <c r="D36" s="68"/>
+      <c r="E36" s="68"/>
+      <c r="F36" s="68"/>
+      <c r="G36" s="68"/>
       <c r="H36" s="27"/>
     </row>
     <row r="37" spans="2:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
